--- a/InputData/indst/EoP/Elasticities of Production.xlsx
+++ b/InputData/indst/EoP/Elasticities of Production.xlsx
@@ -1,32 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.3.3-us WIP\InputData\indst\EoP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="48" windowWidth="23952" windowHeight="12840"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="23955" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Results" sheetId="7" r:id="rId2"/>
     <sheet name="EoP-EoPwFC" sheetId="13" r:id="rId3"/>
     <sheet name="EoP-PCiPpUCTdtNI" sheetId="14" r:id="rId4"/>
-    <sheet name="EoP-EoGwFC" sheetId="15" r:id="rId5"/>
-    <sheet name="Fraction Energy Inputs" sheetId="11" r:id="rId6"/>
-    <sheet name="Fraction Nonenergy Inputs" sheetId="5" r:id="rId7"/>
-    <sheet name="Table A2" sheetId="2" r:id="rId8"/>
-    <sheet name="Table A1" sheetId="3" r:id="rId9"/>
-    <sheet name="Table B6" sheetId="12" r:id="rId10"/>
-    <sheet name="Table 8" sheetId="6" r:id="rId11"/>
-    <sheet name="Industry match table" sheetId="9" r:id="rId12"/>
-    <sheet name="Profit margins by sector" sheetId="8" r:id="rId13"/>
+    <sheet name="Fraction Energy Inputs" sheetId="11" r:id="rId5"/>
+    <sheet name="Fraction Nonenergy Inputs" sheetId="5" r:id="rId6"/>
+    <sheet name="Table A2" sheetId="2" r:id="rId7"/>
+    <sheet name="Table A1" sheetId="3" r:id="rId8"/>
+    <sheet name="Table B6" sheetId="12" r:id="rId9"/>
+    <sheet name="Table 8" sheetId="6" r:id="rId10"/>
+    <sheet name="Industry match table" sheetId="9" r:id="rId11"/>
+    <sheet name="Profit margins by sector" sheetId="8" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="342">
   <si>
     <t>Resources for the Future</t>
   </si>
@@ -1012,9 +1016,6 @@
     <t>EoP Perc Change in Production per Unit Carbon Tax due to Nonfuel Impacts</t>
   </si>
   <si>
-    <t>EoP Elasticity of GDP wrt Fuel Cost</t>
-  </si>
-  <si>
     <t>Industry</t>
   </si>
   <si>
@@ -1049,12 +1050,18 @@
   </si>
   <si>
     <t>agriculture</t>
+  </si>
+  <si>
+    <t>The input variable using these values was depreciated in eps-1.3.3, but we retain the calculations on the "Results"</t>
+  </si>
+  <si>
+    <t>tab in case they might come in handy in the future.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -1571,6 +1578,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1618,7 +1628,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1653,7 +1663,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1866,282 +1876,285 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
-    <col min="2" max="2" width="78.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="78.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B4" s="45" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
         <v>2008</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="96" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="96" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="45" t="s">
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="45" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
         <v>2014</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B16" s="96" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="96" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="82" t="s">
+        <v>304</v>
+      </c>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="82" t="s">
-        <v>304</v>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="83" t="s">
+        <v>324</v>
       </c>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="83" t="s">
-        <v>324</v>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="81" t="s">
+        <v>305</v>
       </c>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="81" t="s">
-        <v>305</v>
-      </c>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="81"/>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="81"/>
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="81"/>
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="81"/>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="93" t="s">
+        <v>335</v>
+      </c>
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="93" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="94" t="s">
+        <v>338</v>
+      </c>
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="92" t="s">
         <v>336</v>
       </c>
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="94" t="s">
-        <v>339</v>
-      </c>
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="92" t="s">
-        <v>337</v>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="82" t="s">
+        <v>340</v>
       </c>
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="93"/>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="82" t="s">
+        <v>341</v>
+      </c>
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="93"/>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="82"/>
       <c r="B40" s="1"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>285</v>
       </c>
       <c r="F49" s="8"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>286</v>
       </c>
       <c r="F50" s="8"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>287</v>
       </c>
       <c r="F51" s="8"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>288</v>
       </c>
       <c r="F52" s="8"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>289</v>
       </c>
       <c r="F53" s="8"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B55" s="80" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="81" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:6" s="81" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="1:6" s="81" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:6" s="81" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:6" s="81" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:6" s="81" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:6" s="81" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:6" s="81" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1"/>
-    <hyperlink ref="B16" r:id="rId2"/>
+    <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="B15" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
@@ -2150,467 +2163,16 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B54"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="49.88671875" style="54" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="54" customWidth="1"/>
-    <col min="3" max="16384" width="12.5546875" style="54"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="79" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="54">
-        <v>-0.81200000000000006</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="54">
-        <v>-0.81200000000000006</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="54">
-        <v>-0.29599999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="54">
-        <v>-0.29599999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="54">
-        <v>-0.106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="54">
-        <v>-0.63300000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="54">
-        <v>-0.16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="54">
-        <v>-0.56599999999999995</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="54">
-        <v>-0.77400000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="54">
-        <v>-0.63800000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="54">
-        <v>-1.139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="54">
-        <v>-2.4180000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="54">
-        <v>-0.69799999999999995</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="54">
-        <v>-0.69799999999999995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="54">
-        <v>-0.69799999999999995</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="54">
-        <v>-0.69799999999999995</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="54">
-        <v>-0.69799999999999995</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="54">
-        <v>-7.0999999999999994E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="54">
-        <v>-7.0999999999999994E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="54">
-        <v>-0.98699999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="54">
-        <v>-0.98699999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="54">
-        <v>-0.98699999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="54">
-        <v>-0.98699999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="54">
-        <v>-0.98699999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="54">
-        <v>-0.98699999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="54">
-        <v>-0.98699999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="54">
-        <v>-0.82699999999999996</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="54">
-        <v>-0.82699999999999996</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="54">
-        <v>-0.82699999999999996</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="54">
-        <v>-0.82699999999999996</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="54">
-        <v>-0.82699999999999996</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="54">
-        <v>-0.95299999999999996</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="54">
-        <v>-0.95299999999999996</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="54">
-        <v>-0.95299999999999996</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="54">
-        <v>-0.95299999999999996</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="54">
-        <v>-0.95299999999999996</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="54">
-        <v>-0.505</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="54">
-        <v>-1.6619999999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" s="54">
-        <v>-2.5960000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="54">
-        <v>-2.4849999999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="54">
-        <v>-2.4849999999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" s="54">
-        <v>-1.6619999999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" s="54">
-        <v>-0.745</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" s="54">
-        <v>-0.83299999999999996</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47" s="54">
-        <v>-0.83299999999999996</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48" s="54">
-        <v>-0.83299999999999996</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" s="54">
-        <v>-0.745</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="B50" s="54">
-        <v>-0.745</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="B51" s="54">
-        <v>-0.745</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="B52" s="54">
-        <v>-0.745</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53" s="54">
-        <v>-0.745</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="B54" s="54">
-        <v>-0.745</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.44140625" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" customWidth="1"/>
+    <col min="1" max="1" width="40.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
   </cols>
@@ -2620,7 +2182,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" s="27" t="s">
         <v>124</v>
       </c>
@@ -2650,7 +2212,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>89</v>
       </c>
@@ -2660,7 +2222,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2684,7 +2246,7 @@
         <v>-2.9999999999999997E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2708,7 +2270,7 @@
         <v>-3.0000000000000003E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2732,7 +2294,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>90</v>
       </c>
@@ -2756,7 +2318,7 @@
         <v>-2.5000000000000001E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>92</v>
       </c>
@@ -2780,7 +2342,7 @@
         <v>-5.8799999999999998E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>91</v>
       </c>
@@ -2804,7 +2366,7 @@
         <v>-6.2E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>94</v>
       </c>
@@ -2828,7 +2390,7 @@
         <v>-4.8999999999999998E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>93</v>
       </c>
@@ -2852,7 +2414,7 @@
         <v>-6.6E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -2876,7 +2438,7 @@
         <v>-4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -2900,7 +2462,7 @@
         <v>-2.2000000000000001E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>96</v>
       </c>
@@ -2924,7 +2486,7 @@
         <v>-1.9000000000000001E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -2948,7 +2510,7 @@
         <v>-3.9000000000000005E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>98</v>
       </c>
@@ -2964,7 +2526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -2988,7 +2550,7 @@
         <v>-2.7E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -3012,7 +2574,7 @@
         <v>-1.7239999999999998E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -3036,7 +2598,7 @@
         <v>-5.5099999999999993E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>87</v>
       </c>
@@ -3060,7 +2622,7 @@
         <v>-1.0679999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>99</v>
       </c>
@@ -3084,7 +2646,7 @@
         <v>-9.5999999999999992E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -3108,7 +2670,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -3132,7 +2694,7 @@
         <v>-3.9000000000000005E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>84</v>
       </c>
@@ -3156,7 +2718,7 @@
         <v>-7.6000000000000004E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>88</v>
       </c>
@@ -3188,18 +2750,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.44140625" customWidth="1"/>
+    <col min="1" max="1" width="49.42578125" customWidth="1"/>
     <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -3216,7 +2778,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -3229,7 +2791,7 @@
       </c>
       <c r="E2" s="48"/>
     </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -3242,7 +2804,7 @@
       </c>
       <c r="E3" s="48"/>
     </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3255,7 +2817,7 @@
       </c>
       <c r="E4" s="48"/>
     </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3268,7 +2830,7 @@
       </c>
       <c r="E5" s="48"/>
     </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3281,7 +2843,7 @@
       </c>
       <c r="E6" s="48"/>
     </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -3297,7 +2859,7 @@
       </c>
       <c r="E7" s="48"/>
     </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -3310,7 +2872,7 @@
       </c>
       <c r="E8" s="48"/>
     </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3323,7 +2885,7 @@
       </c>
       <c r="E9" s="48"/>
     </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -3339,7 +2901,7 @@
       </c>
       <c r="E10" s="48"/>
     </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -3355,7 +2917,7 @@
       </c>
       <c r="E11" s="48"/>
     </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -3368,7 +2930,7 @@
       </c>
       <c r="E12" s="48"/>
     </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -3381,7 +2943,7 @@
       </c>
       <c r="E13" s="48"/>
     </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -3394,7 +2956,7 @@
       </c>
       <c r="E14" s="48"/>
     </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -3407,7 +2969,7 @@
       </c>
       <c r="E15" s="48"/>
     </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -3420,7 +2982,7 @@
       </c>
       <c r="E16" s="48"/>
     </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -3433,7 +2995,7 @@
       </c>
       <c r="E17" s="48"/>
     </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -3446,7 +3008,7 @@
       </c>
       <c r="E18" s="48"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -3459,7 +3021,7 @@
       </c>
       <c r="E19" s="48"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -3472,7 +3034,7 @@
       </c>
       <c r="E20" s="48"/>
     </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -3485,7 +3047,7 @@
       </c>
       <c r="E21" s="48"/>
     </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -3498,7 +3060,7 @@
       </c>
       <c r="E22" s="48"/>
     </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -3511,7 +3073,7 @@
       </c>
       <c r="E23" s="48"/>
     </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -3524,7 +3086,7 @@
       </c>
       <c r="E24" s="48"/>
     </row>
-    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -3537,7 +3099,7 @@
       </c>
       <c r="E25" s="48"/>
     </row>
-    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -3550,7 +3112,7 @@
       </c>
       <c r="E26" s="48"/>
     </row>
-    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -3563,7 +3125,7 @@
       </c>
       <c r="E27" s="48"/>
     </row>
-    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -3576,7 +3138,7 @@
       </c>
       <c r="E28" s="48"/>
     </row>
-    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -3589,7 +3151,7 @@
       </c>
       <c r="E29" s="48"/>
     </row>
-    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -3602,7 +3164,7 @@
       </c>
       <c r="E30" s="48"/>
     </row>
-    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -3615,7 +3177,7 @@
       </c>
       <c r="E31" s="48"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -3628,7 +3190,7 @@
       </c>
       <c r="E32" s="48"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -3641,7 +3203,7 @@
       </c>
       <c r="E33" s="48"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -3654,7 +3216,7 @@
       </c>
       <c r="E34" s="48"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -3667,7 +3229,7 @@
       </c>
       <c r="E35" s="48"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -3680,7 +3242,7 @@
       </c>
       <c r="E36" s="48"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -3693,7 +3255,7 @@
       </c>
       <c r="E37" s="48"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -3706,7 +3268,7 @@
       </c>
       <c r="E38" s="48"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -3719,7 +3281,7 @@
       </c>
       <c r="E39" s="48"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -3732,7 +3294,7 @@
       </c>
       <c r="E40" s="48"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -3745,7 +3307,7 @@
       </c>
       <c r="E41" s="48"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -3758,7 +3320,7 @@
       </c>
       <c r="E42" s="48"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -3771,7 +3333,7 @@
       </c>
       <c r="E43" s="48"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -3787,7 +3349,7 @@
       </c>
       <c r="E44" s="48"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -3800,7 +3362,7 @@
       </c>
       <c r="E45" s="48"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -3813,7 +3375,7 @@
       </c>
       <c r="E46" s="48"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -3826,7 +3388,7 @@
       </c>
       <c r="E47" s="48"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -3839,7 +3401,7 @@
       </c>
       <c r="E48" s="48"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -3855,7 +3417,7 @@
       </c>
       <c r="E49" s="48"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -3871,7 +3433,7 @@
       </c>
       <c r="E50" s="48"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -3884,7 +3446,7 @@
       </c>
       <c r="E51" s="48"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>59</v>
       </c>
@@ -3897,7 +3459,7 @@
       </c>
       <c r="E52" s="48"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -3918,17 +3480,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P99"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.5546875" customWidth="1"/>
-    <col min="2" max="9" width="13.6640625" customWidth="1"/>
-    <col min="10" max="16" width="17.88671875" customWidth="1"/>
+    <col min="1" max="1" width="39.5703125" customWidth="1"/>
+    <col min="2" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="16" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -4824,7 +4386,7 @@
         <v>0.17663927250482905</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>167</v>
       </c>
@@ -4853,7 +4415,7 @@
         <v>0.17217789618404206</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>168</v>
       </c>
@@ -4885,7 +4447,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>169</v>
       </c>
@@ -4914,7 +4476,7 @@
         <v>6.0287556240138956E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>170</v>
       </c>
@@ -4943,7 +4505,7 @@
         <v>0.23001219701594572</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>171</v>
       </c>
@@ -4972,7 +4534,7 @@
         <v>0.18769798884176464</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>172</v>
       </c>
@@ -5007,7 +4569,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>173</v>
       </c>
@@ -5036,7 +4598,7 @@
         <v>0.10660316897626179</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
         <v>174</v>
       </c>
@@ -5068,7 +4630,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>175</v>
       </c>
@@ -5100,7 +4662,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>176</v>
       </c>
@@ -5129,7 +4691,7 @@
         <v>4.9791770949271626E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
         <v>177</v>
       </c>
@@ -5161,7 +4723,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>178</v>
       </c>
@@ -5190,7 +4752,7 @@
         <v>0.35386432750442665</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
         <v>179</v>
       </c>
@@ -5219,7 +4781,7 @@
         <v>0.1583748325936819</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
         <v>180</v>
       </c>
@@ -5248,7 +4810,7 @@
         <v>0.23012479430334354</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
         <v>181</v>
       </c>
@@ -5277,7 +4839,7 @@
         <v>5.559008655280661E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
         <v>182</v>
       </c>
@@ -5306,7 +4868,7 @@
         <v>0.25416402639525337</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
         <v>183</v>
       </c>
@@ -5336,7 +4898,7 @@
       </c>
       <c r="J46" s="38"/>
     </row>
-    <row r="47" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
         <v>184</v>
       </c>
@@ -5366,7 +4928,7 @@
       </c>
       <c r="J47" s="39"/>
     </row>
-    <row r="48" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
         <v>185</v>
       </c>
@@ -5396,7 +4958,7 @@
       </c>
       <c r="J48" s="39"/>
     </row>
-    <row r="49" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
         <v>186</v>
       </c>
@@ -5426,7 +4988,7 @@
       </c>
       <c r="J49" s="38"/>
     </row>
-    <row r="50" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
         <v>187</v>
       </c>
@@ -5458,7 +5020,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
         <v>188</v>
       </c>
@@ -5488,7 +5050,7 @@
       </c>
       <c r="J51" s="38"/>
     </row>
-    <row r="52" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
         <v>189</v>
       </c>
@@ -5518,7 +5080,7 @@
       </c>
       <c r="J52" s="38"/>
     </row>
-    <row r="53" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
         <v>190</v>
       </c>
@@ -5548,7 +5110,7 @@
       </c>
       <c r="J53" s="38"/>
     </row>
-    <row r="54" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
         <v>191</v>
       </c>
@@ -5578,7 +5140,7 @@
       </c>
       <c r="J54" s="38"/>
     </row>
-    <row r="55" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
         <v>192</v>
       </c>
@@ -5607,7 +5169,7 @@
         <v>6.2816267655112112E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
         <v>46</v>
       </c>
@@ -5639,7 +5201,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
         <v>193</v>
       </c>
@@ -5689,7 +5251,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
         <v>194</v>
       </c>
@@ -5718,7 +5280,7 @@
         <v>0.13393361966989814</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
         <v>195</v>
       </c>
@@ -5747,7 +5309,7 @@
         <v>0.2135013242725701</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
         <v>196</v>
       </c>
@@ -5782,7 +5344,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
         <v>197</v>
       </c>
@@ -5820,7 +5382,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
         <v>198</v>
       </c>
@@ -5849,7 +5411,7 @@
         <v>9.0814414659642156E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
         <v>199</v>
       </c>
@@ -5881,7 +5443,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="17" t="s">
         <v>200</v>
       </c>
@@ -5922,7 +5484,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="17" t="s">
         <v>201</v>
       </c>
@@ -5951,7 +5513,7 @@
         <v>0.4887952997738953</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="17" t="s">
         <v>202</v>
       </c>
@@ -5983,7 +5545,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="17" t="s">
         <v>203</v>
       </c>
@@ -6012,7 +5574,7 @@
         <v>0.44416390948289936</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
         <v>204</v>
       </c>
@@ -6041,7 +5603,7 @@
         <v>0.16923984058201935</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="17" t="s">
         <v>205</v>
       </c>
@@ -6070,7 +5632,7 @@
         <v>9.4657002891123214E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="17" t="s">
         <v>206</v>
       </c>
@@ -6099,7 +5661,7 @@
         <v>0.37709732846477739</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="17" t="s">
         <v>207</v>
       </c>
@@ -6128,7 +5690,7 @@
         <v>6.6175562086976045E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="s">
         <v>208</v>
       </c>
@@ -6160,7 +5722,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="17" t="s">
         <v>209</v>
       </c>
@@ -6189,7 +5751,7 @@
         <v>0.12528898952024028</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="17" t="s">
         <v>210</v>
       </c>
@@ -6218,7 +5780,7 @@
         <v>0.20584921391537322</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="17" t="s">
         <v>211</v>
       </c>
@@ -6247,7 +5809,7 @@
         <v>0.1307667251912642</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="17" t="s">
         <v>212</v>
       </c>
@@ -6276,7 +5838,7 @@
         <v>0.19630348620997556</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="17" t="s">
         <v>213</v>
       </c>
@@ -6305,7 +5867,7 @@
         <v>6.0385323994028843E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
         <v>214</v>
       </c>
@@ -6334,7 +5896,7 @@
         <v>0.11082804601778472</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="17" t="s">
         <v>215</v>
       </c>
@@ -6363,7 +5925,7 @@
         <v>9.6834174319479271E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="17" t="s">
         <v>216</v>
       </c>
@@ -6392,7 +5954,7 @@
         <v>7.4054926371277002E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="17" t="s">
         <v>217</v>
       </c>
@@ -6421,7 +5983,7 @@
         <v>4.8646632768446316E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="17" t="s">
         <v>218</v>
       </c>
@@ -6450,7 +6012,7 @@
         <v>9.4260279822685228E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="17" t="s">
         <v>219</v>
       </c>
@@ -6479,7 +6041,7 @@
         <v>8.8875648490498199E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="17" t="s">
         <v>220</v>
       </c>
@@ -6508,7 +6070,7 @@
         <v>0.11629628788910579</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="17" t="s">
         <v>221</v>
       </c>
@@ -6537,7 +6099,7 @@
         <v>0.46819219687209818</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="17" t="s">
         <v>222</v>
       </c>
@@ -6566,7 +6128,7 @@
         <v>0.30056992593358517</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="17" t="s">
         <v>223</v>
       </c>
@@ -6595,7 +6157,7 @@
         <v>0.15853661942135552</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="17" t="s">
         <v>224</v>
       </c>
@@ -6624,7 +6186,7 @@
         <v>0.13279169087977191</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="17" t="s">
         <v>225</v>
       </c>
@@ -6656,7 +6218,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="17" t="s">
         <v>226</v>
       </c>
@@ -6685,7 +6247,7 @@
         <v>0.19424716018390345</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="17" t="s">
         <v>227</v>
       </c>
@@ -6714,7 +6276,7 @@
         <v>0.3801448462204261</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="17" t="s">
         <v>228</v>
       </c>
@@ -6743,7 +6305,7 @@
         <v>0.26166881279653442</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="17" t="s">
         <v>229</v>
       </c>
@@ -6772,7 +6334,7 @@
         <v>1.3994930686232185E-4</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="17" t="s">
         <v>230</v>
       </c>
@@ -6801,7 +6363,7 @@
         <v>0.4244552933990533</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="17" t="s">
         <v>84</v>
       </c>
@@ -6836,7 +6398,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="17" t="s">
         <v>231</v>
       </c>
@@ -6868,7 +6430,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="17" t="s">
         <v>232</v>
       </c>
@@ -6903,7 +6465,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="17" t="s">
         <v>233</v>
       </c>
@@ -6932,7 +6494,7 @@
         <v>0.425834158796078</v>
       </c>
     </row>
-    <row r="99" spans="1:11" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="40" t="s">
         <v>234</v>
       </c>
@@ -6976,16 +6538,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" customWidth="1"/>
-    <col min="4" max="4" width="36.88671875" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7151,7 +6713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="57" t="s">
         <v>113</v>
       </c>
@@ -7174,9 +6736,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="57" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B9" s="58">
         <f>SUM('Fraction Energy Inputs'!M2:M3)/SUM('Fraction Energy Inputs'!$G2:$G3)</f>
@@ -7201,7 +6763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="61" t="s">
         <v>114</v>
       </c>
@@ -7274,7 +6836,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>109</v>
       </c>
@@ -7291,7 +6853,7 @@
         <v>-3.2420299857353522E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>110</v>
       </c>
@@ -7308,7 +6870,7 @@
         <v>-3.366674368644336E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>111</v>
       </c>
@@ -7325,7 +6887,7 @@
         <v>-5.7765808649244373E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>112</v>
       </c>
@@ -7342,7 +6904,7 @@
         <v>-5.6574187577853241E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>86</v>
       </c>
@@ -7359,7 +6921,7 @@
         <v>-8.3304119105844891E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>113</v>
       </c>
@@ -7375,9 +6937,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="97" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B24" s="98">
         <f>'Table 8'!H18</f>
@@ -7392,7 +6954,7 @@
         <v>-2.6017330165533736E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
         <v>114</v>
       </c>
@@ -7409,7 +6971,7 @@
         <v>-2.2613694345168328E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>121</v>
       </c>
@@ -7430,35 +6992,35 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" customWidth="1"/>
-    <col min="2" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" customWidth="1"/>
+    <col min="2" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="89" t="s">
+        <v>328</v>
+      </c>
+      <c r="B1" s="90" t="s">
         <v>329</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="C1" s="90" t="s">
         <v>330</v>
       </c>
-      <c r="C1" s="90" t="s">
+      <c r="D1" s="90" t="s">
         <v>331</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="E1" s="90" t="s">
         <v>332</v>
       </c>
-      <c r="E1" s="90" t="s">
+      <c r="F1" s="90" t="s">
+        <v>334</v>
+      </c>
+      <c r="G1" s="90" t="s">
         <v>333</v>
-      </c>
-      <c r="F1" s="90" t="s">
-        <v>335</v>
-      </c>
-      <c r="G1" s="90" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7635,9 +7197,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="91" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B8" s="88">
         <f>Results!B9</f>
@@ -7693,43 +7255,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
     </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
     </row>
-    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
     </row>
-    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
     </row>
-    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
     </row>
-    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
     </row>
-    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
     </row>
-    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
     </row>
   </sheetData>
@@ -7746,18 +7308,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.5546875" customWidth="1"/>
+    <col min="1" max="1" width="36.5703125" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="89" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B1" s="90" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -7816,7 +7378,7 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="91" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B8" s="88">
         <f>Results!D24</f>
@@ -7838,155 +7400,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:G21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="36.33203125" customWidth="1"/>
-    <col min="2" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="89"/>
-      <c r="B1" s="90" t="s">
-        <v>330</v>
-      </c>
-      <c r="C1" s="90" t="s">
-        <v>331</v>
-      </c>
-      <c r="D1" s="90" t="s">
-        <v>332</v>
-      </c>
-      <c r="E1" s="90" t="s">
-        <v>333</v>
-      </c>
-      <c r="F1" s="90" t="s">
-        <v>335</v>
-      </c>
-      <c r="G1" s="90" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
-        <v>303</v>
-      </c>
-      <c r="B2" s="88">
-        <f>Results!B11</f>
-        <v>-7.6417344411074525E-3</v>
-      </c>
-      <c r="C2" s="88">
-        <f>Results!C11</f>
-        <v>-2.4493425997817992E-4</v>
-      </c>
-      <c r="D2" s="88">
-        <f>Results!D11</f>
-        <v>-4.3155749501956747E-3</v>
-      </c>
-      <c r="E2" s="15">
-        <f>Results!E11</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="88">
-        <f>Results!F11</f>
-        <v>-7.3418521662943917E-3</v>
-      </c>
-      <c r="G2" s="15">
-        <f>Results!G11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="91"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="F3" s="88"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="91"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="F4" s="88"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="F5" s="88"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="91"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="F6" s="88"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="91"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="91"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="F8" s="88"/>
-    </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-    </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-    </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-    </row>
-    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-    </row>
-    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-    </row>
-    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-    </row>
-    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-    </row>
-    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q53"/>
   <sheetViews>
@@ -7997,26 +7410,26 @@
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34" style="54" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="54" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" style="77" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" style="54" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="54" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="54" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" style="77" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" style="54" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" style="77" customWidth="1"/>
-    <col min="10" max="12" width="19.33203125" style="54" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" style="77" customWidth="1"/>
-    <col min="14" max="15" width="19.33203125" style="78" customWidth="1"/>
-    <col min="16" max="16" width="24.109375" style="78" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="77"/>
-    <col min="18" max="16384" width="9.109375" style="54"/>
+    <col min="2" max="2" width="16.28515625" style="54" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="77" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="54" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="54" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="54" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" style="77" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" style="54" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="77" customWidth="1"/>
+    <col min="10" max="12" width="19.28515625" style="54" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" style="77" customWidth="1"/>
+    <col min="14" max="15" width="19.28515625" style="78" customWidth="1"/>
+    <col min="16" max="16" width="24.140625" style="78" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="77"/>
+    <col min="18" max="16384" width="9.140625" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
         <v>4</v>
       </c>
@@ -8069,7 +7482,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="str">
         <f>'Table B6'!A3</f>
         <v>Farms</v>
@@ -8136,7 +7549,7 @@
       </c>
       <c r="Q2" s="76"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="str">
         <f>'Table B6'!A4</f>
         <v>Forestry, fishing, etc.</v>
@@ -8203,7 +7616,7 @@
       </c>
       <c r="Q3" s="76"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="54" t="str">
         <f>'Table B6'!A5</f>
         <v>Oil mining</v>
@@ -8270,7 +7683,7 @@
       </c>
       <c r="Q4" s="76"/>
     </row>
-    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="54" t="str">
         <f>'Table B6'!A6</f>
         <v>Gas mining</v>
@@ -8337,7 +7750,7 @@
       </c>
       <c r="Q5" s="76"/>
     </row>
-    <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="54" t="str">
         <f>'Table B6'!A7</f>
         <v>Coal mining</v>
@@ -8404,7 +7817,7 @@
       </c>
       <c r="Q6" s="76"/>
     </row>
-    <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="54" t="str">
         <f>'Table B6'!A8</f>
         <v>Other mining activities</v>
@@ -8471,7 +7884,7 @@
       </c>
       <c r="Q7" s="76"/>
     </row>
-    <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="54" t="str">
         <f>'Table B6'!A9</f>
         <v>Electric utilities (including government enterprises)</v>
@@ -8540,7 +7953,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="54" t="str">
         <f>'Table B6'!A10</f>
         <v>Gas utilities</v>
@@ -8607,7 +8020,7 @@
       </c>
       <c r="Q9" s="76"/>
     </row>
-    <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="str">
         <f>'Table B6'!A11</f>
         <v>Construction</v>
@@ -8676,7 +8089,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="54" t="str">
         <f>'Table B6'!A12</f>
         <v>Food</v>
@@ -8745,7 +8158,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="54" t="str">
         <f>'Table B6'!A13</f>
         <v>Textile</v>
@@ -8814,7 +8227,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="str">
         <f>'Table B6'!A14</f>
         <v>Apparel</v>
@@ -8883,7 +8296,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="54" t="str">
         <f>'Table B6'!A15</f>
         <v>Wood and furniture</v>
@@ -8952,7 +8365,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="54" t="str">
         <f>'Table B6'!A16</f>
         <v>Pulp mills</v>
@@ -9021,7 +8434,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="54" t="str">
         <f>'Table B6'!A17</f>
         <v>Paper mills</v>
@@ -9090,7 +8503,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="54" t="str">
         <f>'Table B6'!A18</f>
         <v>Paperboard mills</v>
@@ -9159,7 +8572,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="54" t="str">
         <f>'Table B6'!A19</f>
         <v>Other papers</v>
@@ -9228,7 +8641,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="54" t="str">
         <f>'Table B6'!A20</f>
         <v>Refining–LPG</v>
@@ -9295,7 +8708,7 @@
       </c>
       <c r="Q19" s="76"/>
     </row>
-    <row r="20" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="54" t="str">
         <f>'Table B6'!A21</f>
         <v>Refining–other</v>
@@ -9362,7 +8775,7 @@
       </c>
       <c r="Q20" s="76"/>
     </row>
-    <row r="21" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="54" t="str">
         <f>'Table B6'!A22</f>
         <v>Petrochemical mfg</v>
@@ -9429,7 +8842,7 @@
       </c>
       <c r="Q21" s="76"/>
     </row>
-    <row r="22" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="54" t="str">
         <f>'Table B6'!A23</f>
         <v>Other basic inorganic chemical mfg.</v>
@@ -9496,7 +8909,7 @@
       </c>
       <c r="Q22" s="76"/>
     </row>
-    <row r="23" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="str">
         <f>'Table B6'!A24</f>
         <v>Other basic organic chemical mfg.</v>
@@ -9563,7 +8976,7 @@
       </c>
       <c r="Q23" s="76"/>
     </row>
-    <row r="24" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="54" t="str">
         <f>'Table B6'!A25</f>
         <v>Plastics material and resin mfg.</v>
@@ -9630,7 +9043,7 @@
       </c>
       <c r="Q24" s="76"/>
     </row>
-    <row r="25" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="54" t="str">
         <f>'Table B6'!A26</f>
         <v>Artificial and synthetic fibers, filaments</v>
@@ -9697,7 +9110,7 @@
       </c>
       <c r="Q25" s="76"/>
     </row>
-    <row r="26" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="54" t="str">
         <f>'Table B6'!A27</f>
         <v>Fertilizer manufacturing</v>
@@ -9764,7 +9177,7 @@
       </c>
       <c r="Q26" s="76"/>
     </row>
-    <row r="27" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="54" t="str">
         <f>'Table B6'!A28</f>
         <v>Other chemical and plastics</v>
@@ -9831,7 +9244,7 @@
       </c>
       <c r="Q27" s="76"/>
     </row>
-    <row r="28" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="54" t="str">
         <f>'Table B6'!A29</f>
         <v>Other container manufacturing</v>
@@ -9900,7 +9313,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="54" t="str">
         <f>'Table B6'!A30</f>
         <v>Cement manufacturing</v>
@@ -9967,7 +9380,7 @@
       </c>
       <c r="Q29" s="76"/>
     </row>
-    <row r="30" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="54" t="str">
         <f>'Table B6'!A31</f>
         <v>Lime and gypsum product mfg.</v>
@@ -10034,7 +9447,7 @@
       </c>
       <c r="Q30" s="76"/>
     </row>
-    <row r="31" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="54" t="str">
         <f>'Table B6'!A32</f>
         <v>Mineral wool manufacturing</v>
@@ -10103,7 +9516,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="54" t="str">
         <f>'Table B6'!A33</f>
         <v>Other nonmetallic mineral</v>
@@ -10172,7 +9585,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="54" t="str">
         <f>'Table B6'!A34</f>
         <v>Iron and steel mills, ferroalloy mfg.</v>
@@ -10239,7 +9652,7 @@
       </c>
       <c r="Q33" s="76"/>
     </row>
-    <row r="34" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="54" t="str">
         <f>'Table B6'!A35</f>
         <v>Alumina refining, primary aluminum</v>
@@ -10308,7 +9721,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="54" t="str">
         <f>'Table B6'!A36</f>
         <v>Ferrous metal foundries</v>
@@ -10375,7 +9788,7 @@
       </c>
       <c r="Q35" s="76"/>
     </row>
-    <row r="36" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="54" t="str">
         <f>'Table B6'!A37</f>
         <v>Nonferrous metal foundries</v>
@@ -10444,7 +9857,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="54" t="str">
         <f>'Table B6'!A38</f>
         <v>Other primary metals</v>
@@ -10513,7 +9926,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="54" t="str">
         <f>'Table B6'!A39</f>
         <v>Fabricated metals</v>
@@ -10582,7 +9995,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="54" t="str">
         <f>'Table B6'!A40</f>
         <v>Machinery</v>
@@ -10651,7 +10064,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="54" t="str">
         <f>'Table B6'!A41</f>
         <v>Computer and electrical equipment</v>
@@ -10720,7 +10133,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="54" t="str">
         <f>'Table B6'!A42</f>
         <v>Motor vehicles</v>
@@ -10789,7 +10202,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="54" t="str">
         <f>'Table B6'!A43</f>
         <v>Other transportation equipment</v>
@@ -10858,7 +10271,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="54" t="str">
         <f>'Table B6'!A44</f>
         <v>Miscellaneous manufacturing</v>
@@ -10927,7 +10340,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="54" t="str">
         <f>'Table B6'!A45</f>
         <v>Trade</v>
@@ -10994,7 +10407,7 @@
       </c>
       <c r="Q44" s="76"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="54" t="str">
         <f>'Table B6'!A46</f>
         <v>Air transportation</v>
@@ -11061,7 +10474,7 @@
       </c>
       <c r="Q45" s="76"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="54" t="str">
         <f>'Table B6'!A47</f>
         <v>Truck transportaton</v>
@@ -11128,7 +10541,7 @@
       </c>
       <c r="Q46" s="76"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="54" t="str">
         <f>'Table B6'!A48</f>
         <v>Other transportation</v>
@@ -11195,7 +10608,7 @@
       </c>
       <c r="Q47" s="76"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="54" t="str">
         <f>'Table B6'!A49</f>
         <v>Information</v>
@@ -11262,7 +10675,7 @@
       </c>
       <c r="Q48" s="76"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="54" t="str">
         <f>'Table B6'!A50</f>
         <v>Finance and insurance</v>
@@ -11329,7 +10742,7 @@
       </c>
       <c r="Q49" s="76"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="54" t="str">
         <f>'Table B6'!A51</f>
         <v>Real estate and rental</v>
@@ -11396,7 +10809,7 @@
       </c>
       <c r="Q50" s="76"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="54" t="str">
         <f>'Table B6'!A52</f>
         <v>Business services</v>
@@ -11463,7 +10876,7 @@
       </c>
       <c r="Q51" s="76"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="54" t="str">
         <f>'Table B6'!A53</f>
         <v>Other services</v>
@@ -11530,7 +10943,7 @@
       </c>
       <c r="Q52" s="76"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="54" t="str">
         <f>'Table B6'!A54</f>
         <v>Government excluding electricity</v>
@@ -11602,7 +11015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K53"/>
   <sheetViews>
@@ -11613,16 +11026,16 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.109375" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" customWidth="1"/>
-    <col min="4" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="7" width="22.5546875" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" customWidth="1"/>
-    <col min="10" max="10" width="32.109375" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="7" width="22.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="10" max="10" width="32.140625" customWidth="1"/>
     <col min="11" max="11" width="21" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11658,7 +11071,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'Table A1'!A3</f>
         <v>Farms</v>
@@ -11696,7 +11109,7 @@
         <v>0.8312897399321415</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>'Table A1'!A4</f>
         <v>Forestry, fishing, etc.</v>
@@ -11734,7 +11147,7 @@
         <v>0.5205249022238444</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'Table A1'!A5</f>
         <v>Oil mining</v>
@@ -11772,7 +11185,7 @@
         <v>0.87523952498855118</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>'Table A1'!A6</f>
         <v>Gas mining</v>
@@ -11810,7 +11223,7 @@
         <v>0.91248689641698777</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>'Table A1'!A7</f>
         <v>Coal mining</v>
@@ -11848,7 +11261,7 @@
         <v>0.95086980811389588</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>'Table A1'!A8</f>
         <v>Other mining activities</v>
@@ -11885,7 +11298,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>'Table A1'!A9</f>
         <v>Electric utilities (including government enterprises)</v>
@@ -11918,14 +11331,14 @@
         <v>118</v>
       </c>
       <c r="J8" s="97" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K8" s="99">
         <f>SUM(G2:G3)/SUM(B2:B3)</f>
         <v>0.96360482094569389</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>'Table A1'!A10</f>
         <v>Gas utilities</v>
@@ -11963,7 +11376,7 @@
         <v>0.96811989946032595</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>'Table A1'!A11</f>
         <v>Construction</v>
@@ -11996,7 +11409,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>'Table A1'!A12</f>
         <v>Food</v>
@@ -12029,7 +11442,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>'Table A1'!A13</f>
         <v>Textile</v>
@@ -12062,7 +11475,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>'Table A1'!A14</f>
         <v>Apparel</v>
@@ -12095,7 +11508,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>'Table A1'!A15</f>
         <v>Wood and furniture</v>
@@ -12128,7 +11541,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>'Table A1'!A16</f>
         <v>Pulp mills</v>
@@ -12161,7 +11574,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>'Table A1'!A17</f>
         <v>Paper mills</v>
@@ -12194,7 +11607,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>'Table A1'!A18</f>
         <v>Paperboard mills</v>
@@ -12227,7 +11640,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>'Table A1'!A19</f>
         <v>Other papers</v>
@@ -12260,7 +11673,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>'Table A1'!A20</f>
         <v>Refining–LPG</v>
@@ -12291,7 +11704,7 @@
       </c>
       <c r="H19" s="19"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>'Table A1'!A21</f>
         <v>Refining–other</v>
@@ -12322,7 +11735,7 @@
       </c>
       <c r="H20" s="19"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>'Table A1'!A22</f>
         <v>Petrochemical mfg</v>
@@ -12353,7 +11766,7 @@
       </c>
       <c r="H21" s="19"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>'Table A1'!A23</f>
         <v>Other basic inorganic chemical mfg.</v>
@@ -12384,7 +11797,7 @@
       </c>
       <c r="H22" s="19"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>'Table A1'!A24</f>
         <v>Other basic organic chemical mfg.</v>
@@ -12415,7 +11828,7 @@
       </c>
       <c r="H23" s="19"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>'Table A1'!A25</f>
         <v>Plastics material and resin mfg.</v>
@@ -12446,7 +11859,7 @@
       </c>
       <c r="H24" s="19"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>'Table A1'!A26</f>
         <v>Artificial and synthetic fibers, filaments</v>
@@ -12477,7 +11890,7 @@
       </c>
       <c r="H25" s="19"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>'Table A1'!A27</f>
         <v>Fertilizer manufacturing</v>
@@ -12508,7 +11921,7 @@
       </c>
       <c r="H26" s="19"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>'Table A1'!A28</f>
         <v>Other chemical and plastics</v>
@@ -12539,7 +11952,7 @@
       </c>
       <c r="H27" s="19"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>'Table A1'!A29</f>
         <v>Other container manufacturing</v>
@@ -12572,7 +11985,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f>'Table A1'!A30</f>
         <v>Cement manufacturing</v>
@@ -12603,7 +12016,7 @@
       </c>
       <c r="H29" s="19"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f>'Table A1'!A31</f>
         <v>Lime and gypsum product mfg.</v>
@@ -12634,7 +12047,7 @@
       </c>
       <c r="H30" s="19"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f>'Table A1'!A32</f>
         <v>Mineral wool manufacturing</v>
@@ -12667,7 +12080,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f>'Table A1'!A33</f>
         <v>Other nonmetallic mineral</v>
@@ -12700,7 +12113,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f>'Table A1'!A34</f>
         <v>Iron and steel mills, ferroalloy mfg.</v>
@@ -12731,7 +12144,7 @@
       </c>
       <c r="H33" s="19"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f>'Table A1'!A35</f>
         <v>Alumina refining, primary aluminum</v>
@@ -12764,7 +12177,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f>'Table A1'!A36</f>
         <v>Ferrous metal foundries</v>
@@ -12795,7 +12208,7 @@
       </c>
       <c r="H35" s="19"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f>'Table A1'!A37</f>
         <v>Nonferrous metal foundries</v>
@@ -12828,7 +12241,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f>'Table A1'!A38</f>
         <v>Other primary metals</v>
@@ -12861,7 +12274,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f>'Table A1'!A39</f>
         <v>Fabricated metals</v>
@@ -12894,7 +12307,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f>'Table A1'!A40</f>
         <v>Machinery</v>
@@ -12927,7 +12340,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f>'Table A1'!A41</f>
         <v>Computer and electrical equipment</v>
@@ -12960,7 +12373,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f>'Table A1'!A42</f>
         <v>Motor vehicles</v>
@@ -12993,7 +12406,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f>'Table A1'!A43</f>
         <v>Other transportation equipment</v>
@@ -13026,7 +12439,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f>'Table A1'!A44</f>
         <v>Miscellaneous manufacturing</v>
@@ -13059,7 +12472,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f>'Table A1'!A45</f>
         <v>Trade</v>
@@ -13090,7 +12503,7 @@
       </c>
       <c r="H44" s="19"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f>'Table A1'!A46</f>
         <v>Air transportation</v>
@@ -13121,7 +12534,7 @@
       </c>
       <c r="H45" s="19"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f>'Table A1'!A47</f>
         <v>Truck transportaton</v>
@@ -13152,7 +12565,7 @@
       </c>
       <c r="H46" s="19"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f>'Table A1'!A48</f>
         <v>Other transportation</v>
@@ -13183,7 +12596,7 @@
       </c>
       <c r="H47" s="19"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f>'Table A1'!A49</f>
         <v>Information</v>
@@ -13214,7 +12627,7 @@
       </c>
       <c r="H48" s="19"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f>'Table A1'!A50</f>
         <v>Finance and insurance</v>
@@ -13245,7 +12658,7 @@
       </c>
       <c r="H49" s="19"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f>'Table A1'!A51</f>
         <v>Real estate and rental</v>
@@ -13276,7 +12689,7 @@
       </c>
       <c r="H50" s="19"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f>'Table A1'!A52</f>
         <v>Business services</v>
@@ -13307,7 +12720,7 @@
       </c>
       <c r="H51" s="19"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f>'Table A1'!A53</f>
         <v>Other services</v>
@@ -13338,7 +12751,7 @@
       </c>
       <c r="H52" s="19"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f>'Table A1'!A54</f>
         <v>Government excluding electricity</v>
@@ -13368,6 +12781,1831 @@
         <v>1987187.2100764092</v>
       </c>
       <c r="H53" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>3</v>
+      </c>
+      <c r="E3" s="9">
+        <v>2696</v>
+      </c>
+      <c r="F3" s="8">
+        <v>312</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
+        <v>3950</v>
+      </c>
+      <c r="I3" s="8">
+        <f>SUM(B3:H3)</f>
+        <v>6961</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>61</v>
+      </c>
+      <c r="F4" s="8">
+        <v>8</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>595</v>
+      </c>
+      <c r="I4" s="8">
+        <f t="shared" ref="I4:I61" si="0">SUM(B4:H4)</f>
+        <v>664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>2</v>
+      </c>
+      <c r="E5" s="8">
+        <v>813</v>
+      </c>
+      <c r="F5" s="8">
+        <v>386</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>288</v>
+      </c>
+      <c r="I5" s="8">
+        <f t="shared" si="0"/>
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>548</v>
+      </c>
+      <c r="F6" s="8">
+        <v>260</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>194</v>
+      </c>
+      <c r="I6" s="8">
+        <f t="shared" si="0"/>
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
+        <v>379</v>
+      </c>
+      <c r="F7" s="8">
+        <v>195</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>171</v>
+      </c>
+      <c r="I7" s="8">
+        <f t="shared" si="0"/>
+        <v>745</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8">
+        <v>3</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1376</v>
+      </c>
+      <c r="F8" s="8">
+        <v>812</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>740</v>
+      </c>
+      <c r="I8" s="8">
+        <f t="shared" si="0"/>
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0</v>
+      </c>
+      <c r="C9" s="9">
+        <v>13536</v>
+      </c>
+      <c r="D9" s="9">
+        <v>17752</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>26</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>3011</v>
+      </c>
+      <c r="I9" s="8">
+        <f t="shared" si="0"/>
+        <v>34325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0</v>
+      </c>
+      <c r="C10" s="9">
+        <v>35789</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8">
+        <v>28</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8">
+        <v>72</v>
+      </c>
+      <c r="I10" s="8">
+        <f t="shared" si="0"/>
+        <v>35889</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="8">
+        <v>0</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9">
+        <v>2934</v>
+      </c>
+      <c r="F11" s="8">
+        <v>665</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
+        <v>22053</v>
+      </c>
+      <c r="I11" s="8">
+        <f t="shared" si="0"/>
+        <v>25652</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0</v>
+      </c>
+      <c r="C12" s="8">
+        <v>6</v>
+      </c>
+      <c r="D12" s="8">
+        <v>165</v>
+      </c>
+      <c r="E12" s="9">
+        <v>4932</v>
+      </c>
+      <c r="F12" s="9">
+        <v>3282</v>
+      </c>
+      <c r="G12" s="8">
+        <v>28</v>
+      </c>
+      <c r="H12" s="8">
+        <v>700</v>
+      </c>
+      <c r="I12" s="8">
+        <f t="shared" si="0"/>
+        <v>9113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0</v>
+      </c>
+      <c r="C13" s="8">
+        <v>2</v>
+      </c>
+      <c r="D13" s="8">
+        <v>18</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1978</v>
+      </c>
+      <c r="F13" s="8">
+        <v>539</v>
+      </c>
+      <c r="G13" s="8">
+        <v>12</v>
+      </c>
+      <c r="H13" s="8">
+        <v>117</v>
+      </c>
+      <c r="I13" s="8">
+        <f t="shared" si="0"/>
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="8">
+        <v>0</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
+        <v>282</v>
+      </c>
+      <c r="F14" s="8">
+        <v>108</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="H14" s="8">
+        <v>11</v>
+      </c>
+      <c r="I14" s="8">
+        <f t="shared" si="0"/>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="8">
+        <v>0</v>
+      </c>
+      <c r="C15" s="8">
+        <v>6</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1840</v>
+      </c>
+      <c r="F15" s="8">
+        <v>416</v>
+      </c>
+      <c r="G15" s="8">
+        <v>29</v>
+      </c>
+      <c r="H15" s="8">
+        <v>72</v>
+      </c>
+      <c r="I15" s="8">
+        <f t="shared" si="0"/>
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="8">
+        <v>0</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0</v>
+      </c>
+      <c r="D16" s="8">
+        <v>5</v>
+      </c>
+      <c r="E16" s="8">
+        <v>104</v>
+      </c>
+      <c r="F16" s="8">
+        <v>123</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8">
+        <v>70</v>
+      </c>
+      <c r="I16" s="8">
+        <f t="shared" si="0"/>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="8">
+        <v>0</v>
+      </c>
+      <c r="C17" s="8">
+        <v>2</v>
+      </c>
+      <c r="D17" s="8">
+        <v>240</v>
+      </c>
+      <c r="E17" s="9">
+        <v>2231</v>
+      </c>
+      <c r="F17" s="9">
+        <v>1159</v>
+      </c>
+      <c r="G17" s="8">
+        <v>7</v>
+      </c>
+      <c r="H17" s="8">
+        <v>269</v>
+      </c>
+      <c r="I17" s="8">
+        <f t="shared" si="0"/>
+        <v>3908</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="8">
+        <v>0</v>
+      </c>
+      <c r="C18" s="8">
+        <v>2</v>
+      </c>
+      <c r="D18" s="8">
+        <v>69</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1074</v>
+      </c>
+      <c r="F18" s="8">
+        <v>981</v>
+      </c>
+      <c r="G18" s="8">
+        <v>2</v>
+      </c>
+      <c r="H18" s="8">
+        <v>185</v>
+      </c>
+      <c r="I18" s="8">
+        <f t="shared" si="0"/>
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="8">
+        <v>0</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8">
+        <v>3</v>
+      </c>
+      <c r="E19" s="9">
+        <v>1855</v>
+      </c>
+      <c r="F19" s="8">
+        <v>606</v>
+      </c>
+      <c r="G19" s="8">
+        <v>25</v>
+      </c>
+      <c r="H19" s="8">
+        <v>32</v>
+      </c>
+      <c r="I19" s="8">
+        <f t="shared" si="0"/>
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="9">
+        <v>13880</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0</v>
+      </c>
+      <c r="D20" s="8">
+        <v>25</v>
+      </c>
+      <c r="E20" s="8">
+        <v>269</v>
+      </c>
+      <c r="F20" s="8">
+        <v>507</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0</v>
+      </c>
+      <c r="I20" s="8">
+        <f t="shared" si="0"/>
+        <v>14681</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="9">
+        <v>112126</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0</v>
+      </c>
+      <c r="D21" s="8">
+        <v>203</v>
+      </c>
+      <c r="E21" s="9">
+        <v>2171</v>
+      </c>
+      <c r="F21" s="9">
+        <v>4093</v>
+      </c>
+      <c r="G21" s="8">
+        <v>118</v>
+      </c>
+      <c r="H21" s="8">
+        <v>0</v>
+      </c>
+      <c r="I21" s="8">
+        <f t="shared" si="0"/>
+        <v>118711</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="8">
+        <v>51</v>
+      </c>
+      <c r="C22" s="8">
+        <v>131</v>
+      </c>
+      <c r="D22" s="8">
+        <v>20</v>
+      </c>
+      <c r="E22" s="8">
+        <v>783</v>
+      </c>
+      <c r="F22" s="8">
+        <v>802</v>
+      </c>
+      <c r="G22" s="9">
+        <v>4707</v>
+      </c>
+      <c r="H22" s="8">
+        <v>369</v>
+      </c>
+      <c r="I22" s="8">
+        <f t="shared" si="0"/>
+        <v>6863</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="8">
+        <v>5</v>
+      </c>
+      <c r="C23" s="8">
+        <v>134</v>
+      </c>
+      <c r="D23" s="8">
+        <v>15</v>
+      </c>
+      <c r="E23" s="9">
+        <v>1700</v>
+      </c>
+      <c r="F23" s="8">
+        <v>98</v>
+      </c>
+      <c r="G23" s="8">
+        <v>55</v>
+      </c>
+      <c r="H23" s="8">
+        <v>103</v>
+      </c>
+      <c r="I23" s="8">
+        <f t="shared" si="0"/>
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="8">
+        <v>49</v>
+      </c>
+      <c r="C24" s="8">
+        <v>471</v>
+      </c>
+      <c r="D24" s="8">
+        <v>130</v>
+      </c>
+      <c r="E24" s="9">
+        <v>1806</v>
+      </c>
+      <c r="F24" s="9">
+        <v>2400</v>
+      </c>
+      <c r="G24" s="9">
+        <v>3693</v>
+      </c>
+      <c r="H24" s="9">
+        <v>2108</v>
+      </c>
+      <c r="I24" s="8">
+        <f t="shared" si="0"/>
+        <v>10657</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="8">
+        <v>32</v>
+      </c>
+      <c r="C25" s="8">
+        <v>99</v>
+      </c>
+      <c r="D25" s="8">
+        <v>22</v>
+      </c>
+      <c r="E25" s="9">
+        <v>1218</v>
+      </c>
+      <c r="F25" s="9">
+        <v>1645</v>
+      </c>
+      <c r="G25" s="9">
+        <v>6553</v>
+      </c>
+      <c r="H25" s="8">
+        <v>252</v>
+      </c>
+      <c r="I25" s="8">
+        <f t="shared" si="0"/>
+        <v>9821</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="8">
+        <v>0</v>
+      </c>
+      <c r="C26" s="8">
+        <v>16</v>
+      </c>
+      <c r="D26" s="8">
+        <v>8</v>
+      </c>
+      <c r="E26" s="8">
+        <v>193</v>
+      </c>
+      <c r="F26" s="8">
+        <v>270</v>
+      </c>
+      <c r="G26" s="8">
+        <v>0</v>
+      </c>
+      <c r="H26" s="8">
+        <v>27</v>
+      </c>
+      <c r="I26" s="8">
+        <f t="shared" si="0"/>
+        <v>514</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="8">
+        <v>0</v>
+      </c>
+      <c r="C27" s="8">
+        <v>38</v>
+      </c>
+      <c r="D27" s="8">
+        <v>0</v>
+      </c>
+      <c r="E27" s="8">
+        <v>297</v>
+      </c>
+      <c r="F27" s="9">
+        <v>2612</v>
+      </c>
+      <c r="G27" s="8">
+        <v>0</v>
+      </c>
+      <c r="H27" s="8">
+        <v>21</v>
+      </c>
+      <c r="I27" s="8">
+        <f t="shared" si="0"/>
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="8">
+        <v>3</v>
+      </c>
+      <c r="C28" s="8">
+        <v>231</v>
+      </c>
+      <c r="D28" s="8">
+        <v>64</v>
+      </c>
+      <c r="E28" s="9">
+        <v>7215</v>
+      </c>
+      <c r="F28" s="9">
+        <v>2241</v>
+      </c>
+      <c r="G28" s="8">
+        <v>217</v>
+      </c>
+      <c r="H28" s="9">
+        <v>1088</v>
+      </c>
+      <c r="I28" s="8">
+        <f t="shared" si="0"/>
+        <v>11059</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="8">
+        <v>0</v>
+      </c>
+      <c r="C29" s="8">
+        <v>0</v>
+      </c>
+      <c r="D29" s="8">
+        <v>0</v>
+      </c>
+      <c r="E29" s="8">
+        <v>258</v>
+      </c>
+      <c r="F29" s="8">
+        <v>275</v>
+      </c>
+      <c r="G29" s="8">
+        <v>1</v>
+      </c>
+      <c r="H29" s="8">
+        <v>0</v>
+      </c>
+      <c r="I29" s="8">
+        <f t="shared" si="0"/>
+        <v>534</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="8">
+        <v>0</v>
+      </c>
+      <c r="C30" s="8">
+        <v>0</v>
+      </c>
+      <c r="D30" s="8">
+        <v>193</v>
+      </c>
+      <c r="E30" s="8">
+        <v>818</v>
+      </c>
+      <c r="F30" s="8">
+        <v>113</v>
+      </c>
+      <c r="G30" s="8">
+        <v>0</v>
+      </c>
+      <c r="H30" s="8">
+        <v>530</v>
+      </c>
+      <c r="I30" s="8">
+        <f t="shared" si="0"/>
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="8">
+        <v>0</v>
+      </c>
+      <c r="C31" s="8">
+        <v>0</v>
+      </c>
+      <c r="D31" s="8">
+        <v>54</v>
+      </c>
+      <c r="E31" s="8">
+        <v>89</v>
+      </c>
+      <c r="F31" s="8">
+        <v>38</v>
+      </c>
+      <c r="G31" s="8">
+        <v>0</v>
+      </c>
+      <c r="H31" s="8">
+        <v>144</v>
+      </c>
+      <c r="I31" s="8">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="8">
+        <v>0</v>
+      </c>
+      <c r="C32" s="8">
+        <v>0</v>
+      </c>
+      <c r="D32" s="8">
+        <v>0</v>
+      </c>
+      <c r="E32" s="8">
+        <v>246</v>
+      </c>
+      <c r="F32" s="8">
+        <v>189</v>
+      </c>
+      <c r="G32" s="8">
+        <v>1</v>
+      </c>
+      <c r="H32" s="8">
+        <v>8</v>
+      </c>
+      <c r="I32" s="8">
+        <f t="shared" si="0"/>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="8">
+        <v>0</v>
+      </c>
+      <c r="C33" s="8">
+        <v>1</v>
+      </c>
+      <c r="D33" s="8">
+        <v>6</v>
+      </c>
+      <c r="E33" s="9">
+        <v>1305</v>
+      </c>
+      <c r="F33" s="9">
+        <v>1597</v>
+      </c>
+      <c r="G33" s="8">
+        <v>13</v>
+      </c>
+      <c r="H33" s="8">
+        <v>224</v>
+      </c>
+      <c r="I33" s="8">
+        <f t="shared" si="0"/>
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="8">
+        <v>0</v>
+      </c>
+      <c r="C34" s="8">
+        <v>1</v>
+      </c>
+      <c r="D34" s="8">
+        <v>345</v>
+      </c>
+      <c r="E34" s="9">
+        <v>3771</v>
+      </c>
+      <c r="F34" s="9">
+        <v>2222</v>
+      </c>
+      <c r="G34" s="8">
+        <v>1</v>
+      </c>
+      <c r="H34" s="8">
+        <v>188</v>
+      </c>
+      <c r="I34" s="8">
+        <f t="shared" si="0"/>
+        <v>6528</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="8">
+        <v>0</v>
+      </c>
+      <c r="C35" s="8">
+        <v>3</v>
+      </c>
+      <c r="D35" s="8">
+        <v>0</v>
+      </c>
+      <c r="E35" s="9">
+        <v>3719</v>
+      </c>
+      <c r="F35" s="8">
+        <v>704</v>
+      </c>
+      <c r="G35" s="8">
+        <v>3</v>
+      </c>
+      <c r="H35" s="8">
+        <v>754</v>
+      </c>
+      <c r="I35" s="8">
+        <f t="shared" si="0"/>
+        <v>5183</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="8">
+        <v>0</v>
+      </c>
+      <c r="C36" s="8">
+        <v>0</v>
+      </c>
+      <c r="D36" s="8">
+        <v>3</v>
+      </c>
+      <c r="E36" s="8">
+        <v>539</v>
+      </c>
+      <c r="F36" s="8">
+        <v>145</v>
+      </c>
+      <c r="G36" s="8">
+        <v>7</v>
+      </c>
+      <c r="H36" s="8">
+        <v>17</v>
+      </c>
+      <c r="I36" s="8">
+        <f t="shared" si="0"/>
+        <v>711</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="8">
+        <v>0</v>
+      </c>
+      <c r="C37" s="8">
+        <v>0</v>
+      </c>
+      <c r="D37" s="8">
+        <v>0</v>
+      </c>
+      <c r="E37" s="8">
+        <v>213</v>
+      </c>
+      <c r="F37" s="8">
+        <v>162</v>
+      </c>
+      <c r="G37" s="8">
+        <v>1</v>
+      </c>
+      <c r="H37" s="8">
+        <v>0</v>
+      </c>
+      <c r="I37" s="8">
+        <f t="shared" si="0"/>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="8">
+        <v>0</v>
+      </c>
+      <c r="C38" s="8">
+        <v>0</v>
+      </c>
+      <c r="D38" s="8">
+        <v>10</v>
+      </c>
+      <c r="E38" s="9">
+        <v>1240</v>
+      </c>
+      <c r="F38" s="8">
+        <v>452</v>
+      </c>
+      <c r="G38" s="8">
+        <v>14</v>
+      </c>
+      <c r="H38" s="8">
+        <v>71</v>
+      </c>
+      <c r="I38" s="8">
+        <f t="shared" si="0"/>
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="8">
+        <v>0</v>
+      </c>
+      <c r="C39" s="8">
+        <v>2</v>
+      </c>
+      <c r="D39" s="8">
+        <v>0</v>
+      </c>
+      <c r="E39" s="9">
+        <v>3092</v>
+      </c>
+      <c r="F39" s="9">
+        <v>1094</v>
+      </c>
+      <c r="G39" s="8">
+        <v>18</v>
+      </c>
+      <c r="H39" s="8">
+        <v>45</v>
+      </c>
+      <c r="I39" s="8">
+        <f t="shared" si="0"/>
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="8">
+        <v>0</v>
+      </c>
+      <c r="C40" s="8">
+        <v>3</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1</v>
+      </c>
+      <c r="E40" s="9">
+        <v>1612</v>
+      </c>
+      <c r="F40" s="8">
+        <v>424</v>
+      </c>
+      <c r="G40" s="8">
+        <v>22</v>
+      </c>
+      <c r="H40" s="8">
+        <v>32</v>
+      </c>
+      <c r="I40" s="8">
+        <f t="shared" si="0"/>
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="8">
+        <v>0</v>
+      </c>
+      <c r="C41" s="8">
+        <v>0</v>
+      </c>
+      <c r="D41" s="8">
+        <v>0</v>
+      </c>
+      <c r="E41" s="9">
+        <v>3429</v>
+      </c>
+      <c r="F41" s="8">
+        <v>625</v>
+      </c>
+      <c r="G41" s="8">
+        <v>8</v>
+      </c>
+      <c r="H41" s="8">
+        <v>395</v>
+      </c>
+      <c r="I41" s="8">
+        <f t="shared" si="0"/>
+        <v>4457</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="8">
+        <v>0</v>
+      </c>
+      <c r="C42" s="8">
+        <v>3</v>
+      </c>
+      <c r="D42" s="8">
+        <v>0</v>
+      </c>
+      <c r="E42" s="9">
+        <v>2380</v>
+      </c>
+      <c r="F42" s="8">
+        <v>825</v>
+      </c>
+      <c r="G42" s="8">
+        <v>20</v>
+      </c>
+      <c r="H42" s="8">
+        <v>143</v>
+      </c>
+      <c r="I42" s="8">
+        <f t="shared" si="0"/>
+        <v>3371</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="8">
+        <v>0</v>
+      </c>
+      <c r="C43" s="8">
+        <v>1</v>
+      </c>
+      <c r="D43" s="8">
+        <v>0</v>
+      </c>
+      <c r="E43" s="8">
+        <v>934</v>
+      </c>
+      <c r="F43" s="8">
+        <v>232</v>
+      </c>
+      <c r="G43" s="8">
+        <v>0</v>
+      </c>
+      <c r="H43" s="8">
+        <v>69</v>
+      </c>
+      <c r="I43" s="8">
+        <f t="shared" si="0"/>
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="8">
+        <v>0</v>
+      </c>
+      <c r="C44" s="8">
+        <v>1</v>
+      </c>
+      <c r="D44" s="8">
+        <v>0</v>
+      </c>
+      <c r="E44" s="8">
+        <v>681</v>
+      </c>
+      <c r="F44" s="8">
+        <v>165</v>
+      </c>
+      <c r="G44" s="8">
+        <v>3</v>
+      </c>
+      <c r="H44" s="8">
+        <v>14</v>
+      </c>
+      <c r="I44" s="8">
+        <f t="shared" si="0"/>
+        <v>864</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="8">
+        <v>0</v>
+      </c>
+      <c r="C45" s="8">
+        <v>147</v>
+      </c>
+      <c r="D45" s="8">
+        <v>0</v>
+      </c>
+      <c r="E45" s="9">
+        <v>15278</v>
+      </c>
+      <c r="F45" s="9">
+        <v>1552</v>
+      </c>
+      <c r="G45" s="8">
+        <v>0</v>
+      </c>
+      <c r="H45" s="9">
+        <v>4795</v>
+      </c>
+      <c r="I45" s="8">
+        <f t="shared" si="0"/>
+        <v>21772</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="8">
+        <v>0</v>
+      </c>
+      <c r="C46" s="8">
+        <v>0</v>
+      </c>
+      <c r="D46" s="8">
+        <v>0</v>
+      </c>
+      <c r="E46" s="8">
+        <v>76</v>
+      </c>
+      <c r="F46" s="8">
+        <v>4</v>
+      </c>
+      <c r="G46" s="8">
+        <v>0</v>
+      </c>
+      <c r="H46" s="9">
+        <v>10248</v>
+      </c>
+      <c r="I46" s="8">
+        <f t="shared" si="0"/>
+        <v>10328</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="8">
+        <v>0</v>
+      </c>
+      <c r="C47" s="8">
+        <v>0</v>
+      </c>
+      <c r="D47" s="8">
+        <v>0</v>
+      </c>
+      <c r="E47" s="8">
+        <v>551</v>
+      </c>
+      <c r="F47" s="8">
+        <v>124</v>
+      </c>
+      <c r="G47" s="8">
+        <v>0</v>
+      </c>
+      <c r="H47" s="9">
+        <v>11764</v>
+      </c>
+      <c r="I47" s="8">
+        <f t="shared" si="0"/>
+        <v>12439</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="8">
+        <v>0</v>
+      </c>
+      <c r="C48" s="9">
+        <v>1156</v>
+      </c>
+      <c r="D48" s="8">
+        <v>0</v>
+      </c>
+      <c r="E48" s="9">
+        <v>2161</v>
+      </c>
+      <c r="F48" s="8">
+        <v>806</v>
+      </c>
+      <c r="G48" s="8">
+        <v>0</v>
+      </c>
+      <c r="H48" s="9">
+        <v>11112</v>
+      </c>
+      <c r="I48" s="8">
+        <f t="shared" si="0"/>
+        <v>15235</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="8">
+        <v>0</v>
+      </c>
+      <c r="C49" s="8">
+        <v>97</v>
+      </c>
+      <c r="D49" s="8">
+        <v>0</v>
+      </c>
+      <c r="E49" s="9">
+        <v>2774</v>
+      </c>
+      <c r="F49" s="9">
+        <v>1262</v>
+      </c>
+      <c r="G49" s="8">
+        <v>0</v>
+      </c>
+      <c r="H49" s="8">
+        <v>1068</v>
+      </c>
+      <c r="I49" s="8">
+        <f t="shared" si="0"/>
+        <v>5201</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="8">
+        <v>0</v>
+      </c>
+      <c r="C50" s="8">
+        <v>7</v>
+      </c>
+      <c r="D50" s="8">
+        <v>0</v>
+      </c>
+      <c r="E50" s="9">
+        <v>1713</v>
+      </c>
+      <c r="F50" s="8">
+        <v>229</v>
+      </c>
+      <c r="G50" s="8">
+        <v>0</v>
+      </c>
+      <c r="H50" s="8">
+        <v>485</v>
+      </c>
+      <c r="I50" s="8">
+        <f t="shared" si="0"/>
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="8">
+        <v>0</v>
+      </c>
+      <c r="C51" s="8">
+        <v>33</v>
+      </c>
+      <c r="D51" s="8">
+        <v>1</v>
+      </c>
+      <c r="E51" s="9">
+        <v>14586</v>
+      </c>
+      <c r="F51" s="8">
+        <v>852</v>
+      </c>
+      <c r="G51" s="8">
+        <v>0</v>
+      </c>
+      <c r="H51" s="9">
+        <v>1956</v>
+      </c>
+      <c r="I51" s="8">
+        <f t="shared" si="0"/>
+        <v>17428</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="8">
+        <v>0</v>
+      </c>
+      <c r="C52" s="8">
+        <v>186</v>
+      </c>
+      <c r="D52" s="8">
+        <v>1</v>
+      </c>
+      <c r="E52" s="9">
+        <v>6567</v>
+      </c>
+      <c r="F52" s="9">
+        <v>1238</v>
+      </c>
+      <c r="G52" s="8">
+        <v>0</v>
+      </c>
+      <c r="H52" s="9">
+        <v>11618</v>
+      </c>
+      <c r="I52" s="8">
+        <f t="shared" si="0"/>
+        <v>19610</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="8">
+        <v>0</v>
+      </c>
+      <c r="C53" s="8">
+        <v>292</v>
+      </c>
+      <c r="D53" s="8">
+        <v>1</v>
+      </c>
+      <c r="E53" s="9">
+        <v>26481</v>
+      </c>
+      <c r="F53" s="9">
+        <v>5156</v>
+      </c>
+      <c r="G53" s="8">
+        <v>0</v>
+      </c>
+      <c r="H53" s="9">
+        <v>3498</v>
+      </c>
+      <c r="I53" s="8">
+        <f t="shared" si="0"/>
+        <v>35428</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="8">
+        <v>0</v>
+      </c>
+      <c r="C54" s="9">
+        <v>2504</v>
+      </c>
+      <c r="D54" s="8">
+        <v>3</v>
+      </c>
+      <c r="E54" s="9">
+        <v>10453</v>
+      </c>
+      <c r="F54" s="9">
+        <v>9408</v>
+      </c>
+      <c r="G54" s="8">
+        <v>0</v>
+      </c>
+      <c r="H54" s="9">
+        <v>30002</v>
+      </c>
+      <c r="I54" s="8">
+        <f t="shared" si="0"/>
+        <v>52370</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" s="8">
+        <v>0</v>
+      </c>
+      <c r="C55" s="8">
+        <v>0</v>
+      </c>
+      <c r="D55" s="8">
+        <v>14</v>
+      </c>
+      <c r="E55" s="9">
+        <v>107106</v>
+      </c>
+      <c r="F55" s="9">
+        <v>38490</v>
+      </c>
+      <c r="G55" s="8">
+        <v>0</v>
+      </c>
+      <c r="H55" s="9">
+        <v>68191</v>
+      </c>
+      <c r="I55" s="8">
+        <f t="shared" si="0"/>
+        <v>213801</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" s="8">
+        <v>0</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E56" s="8">
+        <v>0</v>
+      </c>
+      <c r="F56" s="8">
+        <v>0</v>
+      </c>
+      <c r="G56" s="8">
+        <v>0</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I56" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" s="8">
+        <v>0</v>
+      </c>
+      <c r="C57" s="8">
+        <v>0</v>
+      </c>
+      <c r="D57" s="8">
+        <v>0</v>
+      </c>
+      <c r="E57" s="8">
+        <v>0</v>
+      </c>
+      <c r="F57" s="8">
+        <v>0</v>
+      </c>
+      <c r="G57" s="8">
+        <v>0</v>
+      </c>
+      <c r="H57" s="8">
+        <v>0</v>
+      </c>
+      <c r="I57" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" s="8">
+        <v>626</v>
+      </c>
+      <c r="C58" s="8">
+        <v>853</v>
+      </c>
+      <c r="D58" s="8">
+        <v>938</v>
+      </c>
+      <c r="E58" s="8">
+        <v>427</v>
+      </c>
+      <c r="F58" s="8">
+        <v>39</v>
+      </c>
+      <c r="G58" s="8">
+        <v>0</v>
+      </c>
+      <c r="H58" s="9">
+        <v>9430</v>
+      </c>
+      <c r="I58" s="8">
+        <f t="shared" si="0"/>
+        <v>12313</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F59" s="8">
+        <v>0</v>
+      </c>
+      <c r="G59" s="8">
+        <v>0</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I59" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" s="9">
+        <v>51295</v>
+      </c>
+      <c r="C60" s="9">
+        <v>35996</v>
+      </c>
+      <c r="D60" s="9">
+        <v>19172</v>
+      </c>
+      <c r="E60" s="9">
+        <v>250078</v>
+      </c>
+      <c r="F60" s="9">
+        <v>92965</v>
+      </c>
+      <c r="G60" s="9">
+        <v>15558</v>
+      </c>
+      <c r="H60" s="9">
+        <v>177511</v>
+      </c>
+      <c r="I60" s="8">
+        <f t="shared" si="0"/>
+        <v>642575</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" s="9">
+        <v>126146</v>
+      </c>
+      <c r="C61" s="9">
+        <v>52569</v>
+      </c>
+      <c r="D61" s="9">
+        <v>18881</v>
+      </c>
+      <c r="E61" s="9">
+        <v>250852</v>
+      </c>
+      <c r="F61" s="9">
+        <v>92926</v>
+      </c>
+      <c r="G61" s="9">
+        <v>15558</v>
+      </c>
+      <c r="H61" s="9">
+        <v>191641</v>
+      </c>
+      <c r="I61" s="8">
+        <f t="shared" si="0"/>
+        <v>748573</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13376,1822 +14614,763 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.5546875" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="9" max="9" width="26.44140625" customWidth="1"/>
+    <col min="1" max="1" width="52.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="8">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8">
-        <v>3</v>
-      </c>
-      <c r="E3" s="9">
-        <v>2696</v>
-      </c>
-      <c r="F3" s="8">
-        <v>312</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0</v>
-      </c>
-      <c r="H3" s="9">
-        <v>3950</v>
-      </c>
-      <c r="I3" s="8">
-        <f>SUM(B3:H3)</f>
-        <v>6961</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B3" s="10">
+        <v>177337</v>
+      </c>
+      <c r="C3" s="10">
+        <v>171482</v>
+      </c>
+      <c r="D3" s="10">
+        <v>168532</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="8">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8">
-        <v>61</v>
-      </c>
-      <c r="F4" s="8">
-        <v>8</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8">
-        <v>595</v>
-      </c>
-      <c r="I4" s="8">
-        <f t="shared" ref="I4:I61" si="0">SUM(B4:H4)</f>
-        <v>664</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B4" s="10">
+        <v>34382</v>
+      </c>
+      <c r="C4" s="10">
+        <v>41502</v>
+      </c>
+      <c r="D4" s="10">
+        <v>48460</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8">
-        <v>2</v>
-      </c>
-      <c r="E5" s="8">
-        <v>813</v>
-      </c>
-      <c r="F5" s="8">
-        <v>386</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0</v>
-      </c>
-      <c r="H5" s="8">
-        <v>288</v>
-      </c>
-      <c r="I5" s="8">
-        <f t="shared" si="0"/>
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B5" s="10">
+        <v>61093</v>
+      </c>
+      <c r="C5" s="10">
+        <v>51295</v>
+      </c>
+      <c r="D5" s="10">
+        <v>126146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8">
-        <v>0</v>
-      </c>
-      <c r="C6" s="8">
-        <v>0</v>
-      </c>
-      <c r="D6" s="8">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
-        <v>548</v>
-      </c>
-      <c r="F6" s="8">
-        <v>260</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8">
-        <v>194</v>
-      </c>
-      <c r="I6" s="8">
-        <f t="shared" si="0"/>
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B6" s="10">
+        <v>41144</v>
+      </c>
+      <c r="C6" s="10">
+        <v>35996</v>
+      </c>
+      <c r="D6" s="10">
+        <v>52569</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="8">
-        <v>0</v>
-      </c>
-      <c r="C7" s="8">
-        <v>0</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
-      <c r="E7" s="8">
-        <v>379</v>
-      </c>
-      <c r="F7" s="8">
-        <v>195</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8">
-        <v>171</v>
-      </c>
-      <c r="I7" s="8">
-        <f t="shared" si="0"/>
-        <v>745</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B7" s="10">
+        <v>19269</v>
+      </c>
+      <c r="C7" s="10">
+        <v>19172</v>
+      </c>
+      <c r="D7" s="10">
+        <v>18881</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="8">
-        <v>0</v>
-      </c>
-      <c r="C8" s="8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="8">
-        <v>3</v>
-      </c>
-      <c r="E8" s="9">
-        <v>1376</v>
-      </c>
-      <c r="F8" s="8">
-        <v>812</v>
-      </c>
-      <c r="G8" s="8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="8">
-        <v>740</v>
-      </c>
-      <c r="I8" s="8">
-        <f t="shared" si="0"/>
-        <v>2932</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B8" s="10">
+        <v>57139</v>
+      </c>
+      <c r="C8" s="10">
+        <v>57729</v>
+      </c>
+      <c r="D8" s="10">
+        <v>56813</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="8">
-        <v>0</v>
-      </c>
-      <c r="C9" s="9">
-        <v>13536</v>
-      </c>
-      <c r="D9" s="9">
-        <v>17752</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0</v>
-      </c>
-      <c r="F9" s="8">
-        <v>26</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0</v>
-      </c>
-      <c r="H9" s="9">
-        <v>3011</v>
-      </c>
-      <c r="I9" s="8">
-        <f t="shared" si="0"/>
-        <v>34325</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B9" s="10">
+        <v>259603</v>
+      </c>
+      <c r="C9" s="10">
+        <v>250078</v>
+      </c>
+      <c r="D9" s="10">
+        <v>250852</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="8">
-        <v>0</v>
-      </c>
-      <c r="C10" s="9">
-        <v>35789</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="8">
-        <v>28</v>
-      </c>
-      <c r="F10" s="8">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8">
-        <v>72</v>
-      </c>
-      <c r="I10" s="8">
-        <f t="shared" si="0"/>
-        <v>35889</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B10" s="10">
+        <v>82614</v>
+      </c>
+      <c r="C10" s="10">
+        <v>92965</v>
+      </c>
+      <c r="D10" s="10">
+        <v>92926</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="8">
-        <v>0</v>
-      </c>
-      <c r="C11" s="8">
-        <v>0</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-      <c r="E11" s="9">
-        <v>2934</v>
-      </c>
-      <c r="F11" s="8">
-        <v>665</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0</v>
-      </c>
-      <c r="H11" s="9">
-        <v>22053</v>
-      </c>
-      <c r="I11" s="8">
-        <f t="shared" si="0"/>
-        <v>25652</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B11" s="10">
+        <v>966919</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1031693</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1031627</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="8">
-        <v>0</v>
-      </c>
-      <c r="C12" s="8">
-        <v>6</v>
-      </c>
-      <c r="D12" s="8">
-        <v>165</v>
-      </c>
-      <c r="E12" s="9">
-        <v>4932</v>
-      </c>
-      <c r="F12" s="9">
-        <v>3282</v>
-      </c>
-      <c r="G12" s="8">
-        <v>28</v>
-      </c>
-      <c r="H12" s="8">
-        <v>700</v>
-      </c>
-      <c r="I12" s="8">
-        <f t="shared" si="0"/>
-        <v>9113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B12" s="10">
+        <v>470396</v>
+      </c>
+      <c r="C12" s="10">
+        <v>474835</v>
+      </c>
+      <c r="D12" s="10">
+        <v>486680</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="8">
-        <v>0</v>
-      </c>
-      <c r="C13" s="8">
-        <v>2</v>
-      </c>
-      <c r="D13" s="8">
-        <v>18</v>
-      </c>
-      <c r="E13" s="9">
-        <v>1978</v>
-      </c>
-      <c r="F13" s="8">
-        <v>539</v>
-      </c>
-      <c r="G13" s="8">
-        <v>12</v>
-      </c>
-      <c r="H13" s="8">
-        <v>117</v>
-      </c>
-      <c r="I13" s="8">
-        <f t="shared" si="0"/>
-        <v>2666</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B13" s="10">
+        <v>59670</v>
+      </c>
+      <c r="C13" s="10">
+        <v>53357</v>
+      </c>
+      <c r="D13" s="10">
+        <v>62447</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="8">
-        <v>0</v>
-      </c>
-      <c r="C14" s="8">
-        <v>0</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0</v>
-      </c>
-      <c r="E14" s="8">
-        <v>282</v>
-      </c>
-      <c r="F14" s="8">
-        <v>108</v>
-      </c>
-      <c r="G14" s="8">
-        <v>1</v>
-      </c>
-      <c r="H14" s="8">
-        <v>11</v>
-      </c>
-      <c r="I14" s="8">
-        <f t="shared" si="0"/>
-        <v>402</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B14" s="10">
+        <v>44078</v>
+      </c>
+      <c r="C14" s="10">
+        <v>41737</v>
+      </c>
+      <c r="D14" s="10">
+        <v>133149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="8">
-        <v>0</v>
-      </c>
-      <c r="C15" s="8">
-        <v>6</v>
-      </c>
-      <c r="D15" s="8">
-        <v>0</v>
-      </c>
-      <c r="E15" s="9">
-        <v>1840</v>
-      </c>
-      <c r="F15" s="8">
-        <v>416</v>
-      </c>
-      <c r="G15" s="8">
-        <v>29</v>
-      </c>
-      <c r="H15" s="8">
-        <v>72</v>
-      </c>
-      <c r="I15" s="8">
-        <f t="shared" si="0"/>
-        <v>2363</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B15" s="10">
+        <v>136132</v>
+      </c>
+      <c r="C15" s="10">
+        <v>133874</v>
+      </c>
+      <c r="D15" s="10">
+        <v>164005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="8">
-        <v>0</v>
-      </c>
-      <c r="C16" s="8">
-        <v>0</v>
-      </c>
-      <c r="D16" s="8">
-        <v>5</v>
-      </c>
-      <c r="E16" s="8">
-        <v>104</v>
-      </c>
-      <c r="F16" s="8">
-        <v>123</v>
-      </c>
-      <c r="G16" s="8">
-        <v>0</v>
-      </c>
-      <c r="H16" s="8">
-        <v>70</v>
-      </c>
-      <c r="I16" s="8">
-        <f t="shared" si="0"/>
-        <v>302</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B16" s="10">
+        <v>3443</v>
+      </c>
+      <c r="C16" s="10">
+        <v>5197</v>
+      </c>
+      <c r="D16" s="10">
+        <v>5177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="8">
-        <v>0</v>
-      </c>
-      <c r="C17" s="8">
-        <v>2</v>
-      </c>
-      <c r="D17" s="8">
-        <v>240</v>
-      </c>
-      <c r="E17" s="9">
-        <v>2231</v>
-      </c>
-      <c r="F17" s="9">
-        <v>1159</v>
-      </c>
-      <c r="G17" s="8">
-        <v>7</v>
-      </c>
-      <c r="H17" s="8">
-        <v>269</v>
-      </c>
-      <c r="I17" s="8">
-        <f t="shared" si="0"/>
-        <v>3908</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B17" s="10">
+        <v>45319</v>
+      </c>
+      <c r="C17" s="10">
+        <v>45945</v>
+      </c>
+      <c r="D17" s="10">
+        <v>52514</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="8">
-        <v>0</v>
-      </c>
-      <c r="C18" s="8">
-        <v>2</v>
-      </c>
-      <c r="D18" s="8">
-        <v>69</v>
-      </c>
-      <c r="E18" s="9">
-        <v>1074</v>
-      </c>
-      <c r="F18" s="8">
-        <v>981</v>
-      </c>
-      <c r="G18" s="8">
-        <v>2</v>
-      </c>
-      <c r="H18" s="8">
-        <v>185</v>
-      </c>
-      <c r="I18" s="8">
-        <f t="shared" si="0"/>
-        <v>2313</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B18" s="10">
+        <v>21095</v>
+      </c>
+      <c r="C18" s="10">
+        <v>19847</v>
+      </c>
+      <c r="D18" s="10">
+        <v>19882</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="8">
-        <v>0</v>
-      </c>
-      <c r="C19" s="8">
-        <v>1</v>
-      </c>
-      <c r="D19" s="8">
-        <v>3</v>
-      </c>
-      <c r="E19" s="9">
-        <v>1855</v>
-      </c>
-      <c r="F19" s="8">
-        <v>606</v>
-      </c>
-      <c r="G19" s="8">
-        <v>25</v>
-      </c>
-      <c r="H19" s="8">
-        <v>32</v>
-      </c>
-      <c r="I19" s="8">
-        <f t="shared" si="0"/>
-        <v>2522</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="10">
+        <v>173273</v>
+      </c>
+      <c r="C19" s="10">
+        <v>145200</v>
+      </c>
+      <c r="D19" s="10">
+        <v>145197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="9">
-        <v>13880</v>
-      </c>
-      <c r="C20" s="8">
-        <v>0</v>
-      </c>
-      <c r="D20" s="8">
-        <v>25</v>
-      </c>
-      <c r="E20" s="8">
-        <v>269</v>
-      </c>
-      <c r="F20" s="8">
-        <v>507</v>
-      </c>
-      <c r="G20" s="8">
-        <v>0</v>
-      </c>
-      <c r="H20" s="8">
-        <v>0</v>
-      </c>
-      <c r="I20" s="8">
-        <f t="shared" si="0"/>
-        <v>14681</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="10">
+        <v>21023</v>
+      </c>
+      <c r="C20" s="10">
+        <v>15558</v>
+      </c>
+      <c r="D20" s="10">
+        <v>15558</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="9">
-        <v>112126</v>
-      </c>
-      <c r="C21" s="8">
-        <v>0</v>
-      </c>
-      <c r="D21" s="8">
-        <v>203</v>
-      </c>
-      <c r="E21" s="9">
-        <v>2171</v>
-      </c>
-      <c r="F21" s="9">
-        <v>4093</v>
-      </c>
-      <c r="G21" s="8">
-        <v>118</v>
-      </c>
-      <c r="H21" s="8">
-        <v>0</v>
-      </c>
-      <c r="I21" s="8">
-        <f t="shared" si="0"/>
-        <v>118711</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B21" s="10">
+        <v>169836</v>
+      </c>
+      <c r="C21" s="10">
+        <v>177511</v>
+      </c>
+      <c r="D21" s="10">
+        <v>191641</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="8">
-        <v>51</v>
-      </c>
-      <c r="C22" s="8">
-        <v>131</v>
-      </c>
-      <c r="D22" s="8">
-        <v>20</v>
-      </c>
-      <c r="E22" s="8">
-        <v>783</v>
-      </c>
-      <c r="F22" s="8">
-        <v>802</v>
-      </c>
-      <c r="G22" s="9">
-        <v>4707</v>
-      </c>
-      <c r="H22" s="8">
-        <v>369</v>
-      </c>
-      <c r="I22" s="8">
-        <f t="shared" si="0"/>
-        <v>6863</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B22" s="10">
+        <v>14743</v>
+      </c>
+      <c r="C22" s="10">
+        <v>18531</v>
+      </c>
+      <c r="D22" s="10">
+        <v>18270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="8">
-        <v>5</v>
-      </c>
-      <c r="C23" s="8">
-        <v>134</v>
-      </c>
-      <c r="D23" s="8">
-        <v>15</v>
-      </c>
-      <c r="E23" s="9">
-        <v>1700</v>
-      </c>
-      <c r="F23" s="8">
-        <v>98</v>
-      </c>
-      <c r="G23" s="8">
-        <v>55</v>
-      </c>
-      <c r="H23" s="8">
-        <v>103</v>
-      </c>
-      <c r="I23" s="8">
-        <f t="shared" si="0"/>
-        <v>2110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B23" s="10">
+        <v>15177</v>
+      </c>
+      <c r="C23" s="10">
+        <v>17270</v>
+      </c>
+      <c r="D23" s="10">
+        <v>17745</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="8">
-        <v>49</v>
-      </c>
-      <c r="C24" s="8">
-        <v>471</v>
-      </c>
-      <c r="D24" s="8">
-        <v>130</v>
-      </c>
-      <c r="E24" s="9">
-        <v>1806</v>
-      </c>
-      <c r="F24" s="9">
-        <v>2400</v>
-      </c>
-      <c r="G24" s="9">
-        <v>3693</v>
-      </c>
-      <c r="H24" s="9">
-        <v>2108</v>
-      </c>
-      <c r="I24" s="8">
-        <f t="shared" si="0"/>
-        <v>10657</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B24" s="10">
+        <v>47573</v>
+      </c>
+      <c r="C24" s="10">
+        <v>49531</v>
+      </c>
+      <c r="D24" s="10">
+        <v>47725</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="8">
-        <v>32</v>
-      </c>
-      <c r="C25" s="8">
-        <v>99</v>
-      </c>
-      <c r="D25" s="8">
-        <v>22</v>
-      </c>
-      <c r="E25" s="9">
-        <v>1218</v>
-      </c>
-      <c r="F25" s="9">
-        <v>1645</v>
-      </c>
-      <c r="G25" s="9">
-        <v>6553</v>
-      </c>
-      <c r="H25" s="8">
-        <v>252</v>
-      </c>
-      <c r="I25" s="8">
-        <f t="shared" si="0"/>
-        <v>9821</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B25" s="10">
+        <v>44832</v>
+      </c>
+      <c r="C25" s="10">
+        <v>44611</v>
+      </c>
+      <c r="D25" s="10">
+        <v>38808</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="8">
-        <v>0</v>
-      </c>
-      <c r="C26" s="8">
-        <v>16</v>
-      </c>
-      <c r="D26" s="8">
-        <v>8</v>
-      </c>
-      <c r="E26" s="8">
-        <v>193</v>
-      </c>
-      <c r="F26" s="8">
-        <v>270</v>
-      </c>
-      <c r="G26" s="8">
-        <v>0</v>
-      </c>
-      <c r="H26" s="8">
-        <v>27</v>
-      </c>
-      <c r="I26" s="8">
-        <f t="shared" si="0"/>
-        <v>514</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B26" s="10">
+        <v>7651</v>
+      </c>
+      <c r="C26" s="10">
+        <v>12359</v>
+      </c>
+      <c r="D26" s="10">
+        <v>12508</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="8">
-        <v>0</v>
-      </c>
-      <c r="C27" s="8">
-        <v>38</v>
-      </c>
-      <c r="D27" s="8">
-        <v>0</v>
-      </c>
-      <c r="E27" s="8">
-        <v>297</v>
-      </c>
-      <c r="F27" s="9">
-        <v>2612</v>
-      </c>
-      <c r="G27" s="8">
-        <v>0</v>
-      </c>
-      <c r="H27" s="8">
-        <v>21</v>
-      </c>
-      <c r="I27" s="8">
-        <f t="shared" si="0"/>
-        <v>2968</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B27" s="10">
+        <v>8239</v>
+      </c>
+      <c r="C27" s="10">
+        <v>8575</v>
+      </c>
+      <c r="D27" s="10">
+        <v>9195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="8">
-        <v>3</v>
-      </c>
-      <c r="C28" s="8">
-        <v>231</v>
-      </c>
-      <c r="D28" s="8">
-        <v>64</v>
-      </c>
-      <c r="E28" s="9">
-        <v>7215</v>
-      </c>
-      <c r="F28" s="9">
-        <v>2241</v>
-      </c>
-      <c r="G28" s="8">
-        <v>217</v>
-      </c>
-      <c r="H28" s="9">
-        <v>1088</v>
-      </c>
-      <c r="I28" s="8">
-        <f t="shared" si="0"/>
-        <v>11059</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B28" s="10">
+        <v>403058</v>
+      </c>
+      <c r="C28" s="10">
+        <v>398920</v>
+      </c>
+      <c r="D28" s="10">
+        <v>448400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="8">
-        <v>0</v>
-      </c>
-      <c r="C29" s="8">
-        <v>0</v>
-      </c>
-      <c r="D29" s="8">
-        <v>0</v>
-      </c>
-      <c r="E29" s="8">
-        <v>258</v>
-      </c>
-      <c r="F29" s="8">
-        <v>275</v>
-      </c>
-      <c r="G29" s="8">
-        <v>1</v>
-      </c>
-      <c r="H29" s="8">
-        <v>0</v>
-      </c>
-      <c r="I29" s="8">
-        <f t="shared" si="0"/>
-        <v>534</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B29" s="10">
+        <v>4367</v>
+      </c>
+      <c r="C29" s="10">
+        <v>4361</v>
+      </c>
+      <c r="D29" s="10">
+        <v>4861</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="8">
-        <v>0</v>
-      </c>
-      <c r="C30" s="8">
-        <v>0</v>
-      </c>
-      <c r="D30" s="8">
-        <v>193</v>
-      </c>
-      <c r="E30" s="8">
-        <v>818</v>
-      </c>
-      <c r="F30" s="8">
-        <v>113</v>
-      </c>
-      <c r="G30" s="8">
-        <v>0</v>
-      </c>
-      <c r="H30" s="8">
-        <v>530</v>
-      </c>
-      <c r="I30" s="8">
-        <f t="shared" si="0"/>
-        <v>1654</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B30" s="10">
+        <v>7058</v>
+      </c>
+      <c r="C30" s="10">
+        <v>7022</v>
+      </c>
+      <c r="D30" s="10">
+        <v>8132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="8">
-        <v>0</v>
-      </c>
-      <c r="C31" s="8">
-        <v>0</v>
-      </c>
-      <c r="D31" s="8">
-        <v>54</v>
-      </c>
-      <c r="E31" s="8">
-        <v>89</v>
-      </c>
-      <c r="F31" s="8">
-        <v>38</v>
-      </c>
-      <c r="G31" s="8">
-        <v>0</v>
-      </c>
-      <c r="H31" s="8">
-        <v>144</v>
-      </c>
-      <c r="I31" s="8">
-        <f t="shared" si="0"/>
-        <v>325</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="10">
+        <v>4900</v>
+      </c>
+      <c r="C31" s="10">
+        <v>4818</v>
+      </c>
+      <c r="D31" s="10">
+        <v>4837</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="8">
-        <v>0</v>
-      </c>
-      <c r="C32" s="8">
-        <v>0</v>
-      </c>
-      <c r="D32" s="8">
-        <v>0</v>
-      </c>
-      <c r="E32" s="8">
-        <v>246</v>
-      </c>
-      <c r="F32" s="8">
-        <v>189</v>
-      </c>
-      <c r="G32" s="8">
-        <v>1</v>
-      </c>
-      <c r="H32" s="8">
-        <v>8</v>
-      </c>
-      <c r="I32" s="8">
-        <f t="shared" si="0"/>
-        <v>444</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="10">
+        <v>4834</v>
+      </c>
+      <c r="C32" s="10">
+        <v>4810</v>
+      </c>
+      <c r="D32" s="10">
+        <v>4787</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="8">
-        <v>0</v>
-      </c>
-      <c r="C33" s="8">
-        <v>1</v>
-      </c>
-      <c r="D33" s="8">
-        <v>6</v>
-      </c>
-      <c r="E33" s="9">
-        <v>1305</v>
-      </c>
-      <c r="F33" s="9">
-        <v>1597</v>
-      </c>
-      <c r="G33" s="8">
-        <v>13</v>
-      </c>
-      <c r="H33" s="8">
-        <v>224</v>
-      </c>
-      <c r="I33" s="8">
-        <f t="shared" si="0"/>
-        <v>3146</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="10">
+        <v>67020</v>
+      </c>
+      <c r="C33" s="10">
+        <v>65907</v>
+      </c>
+      <c r="D33" s="10">
+        <v>74686</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="8">
-        <v>0</v>
-      </c>
-      <c r="C34" s="8">
-        <v>1</v>
-      </c>
-      <c r="D34" s="8">
-        <v>345</v>
-      </c>
-      <c r="E34" s="9">
-        <v>3771</v>
-      </c>
-      <c r="F34" s="9">
-        <v>2222</v>
-      </c>
-      <c r="G34" s="8">
-        <v>1</v>
-      </c>
-      <c r="H34" s="8">
-        <v>188</v>
-      </c>
-      <c r="I34" s="8">
-        <f t="shared" si="0"/>
-        <v>6528</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="10">
+        <v>41942</v>
+      </c>
+      <c r="C34" s="10">
+        <v>52665</v>
+      </c>
+      <c r="D34" s="10">
+        <v>62903</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="8">
-        <v>0</v>
-      </c>
-      <c r="C35" s="8">
-        <v>3</v>
-      </c>
-      <c r="D35" s="8">
-        <v>0</v>
-      </c>
-      <c r="E35" s="9">
-        <v>3719</v>
-      </c>
-      <c r="F35" s="8">
-        <v>704</v>
-      </c>
-      <c r="G35" s="8">
-        <v>3</v>
-      </c>
-      <c r="H35" s="8">
-        <v>754</v>
-      </c>
-      <c r="I35" s="8">
-        <f t="shared" si="0"/>
-        <v>5183</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="10">
+        <v>18765</v>
+      </c>
+      <c r="C35" s="10">
+        <v>18104</v>
+      </c>
+      <c r="D35" s="10">
+        <v>22262</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="8">
-        <v>0</v>
-      </c>
-      <c r="C36" s="8">
-        <v>0</v>
-      </c>
-      <c r="D36" s="8">
-        <v>3</v>
-      </c>
-      <c r="E36" s="8">
-        <v>539</v>
-      </c>
-      <c r="F36" s="8">
-        <v>145</v>
-      </c>
-      <c r="G36" s="8">
-        <v>7</v>
-      </c>
-      <c r="H36" s="8">
-        <v>17</v>
-      </c>
-      <c r="I36" s="8">
-        <f t="shared" si="0"/>
-        <v>711</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="10">
+        <v>14700</v>
+      </c>
+      <c r="C36" s="10">
+        <v>14413</v>
+      </c>
+      <c r="D36" s="10">
+        <v>14545</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="8">
-        <v>0</v>
-      </c>
-      <c r="C37" s="8">
-        <v>0</v>
-      </c>
-      <c r="D37" s="8">
-        <v>0</v>
-      </c>
-      <c r="E37" s="8">
-        <v>213</v>
-      </c>
-      <c r="F37" s="8">
-        <v>162</v>
-      </c>
-      <c r="G37" s="8">
-        <v>1</v>
-      </c>
-      <c r="H37" s="8">
-        <v>0</v>
-      </c>
-      <c r="I37" s="8">
-        <f t="shared" si="0"/>
-        <v>376</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="10">
+        <v>11420</v>
+      </c>
+      <c r="C37" s="10">
+        <v>11158</v>
+      </c>
+      <c r="D37" s="10">
+        <v>11142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="8">
-        <v>0</v>
-      </c>
-      <c r="C38" s="8">
-        <v>0</v>
-      </c>
-      <c r="D38" s="8">
-        <v>10</v>
-      </c>
-      <c r="E38" s="9">
-        <v>1240</v>
-      </c>
-      <c r="F38" s="8">
-        <v>452</v>
-      </c>
-      <c r="G38" s="8">
-        <v>14</v>
-      </c>
-      <c r="H38" s="8">
-        <v>71</v>
-      </c>
-      <c r="I38" s="8">
-        <f t="shared" si="0"/>
-        <v>1787</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="10">
+        <v>28403</v>
+      </c>
+      <c r="C38" s="10">
+        <v>21628</v>
+      </c>
+      <c r="D38" s="10">
+        <v>29823</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="8">
-        <v>0</v>
-      </c>
-      <c r="C39" s="8">
-        <v>2</v>
-      </c>
-      <c r="D39" s="8">
-        <v>0</v>
-      </c>
-      <c r="E39" s="9">
-        <v>3092</v>
-      </c>
-      <c r="F39" s="9">
-        <v>1094</v>
-      </c>
-      <c r="G39" s="8">
-        <v>18</v>
-      </c>
-      <c r="H39" s="8">
-        <v>45</v>
-      </c>
-      <c r="I39" s="8">
-        <f t="shared" si="0"/>
-        <v>4251</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="11">
+        <v>219291</v>
+      </c>
+      <c r="C39" s="11">
+        <v>212025</v>
+      </c>
+      <c r="D39" s="11">
+        <v>225327</v>
+      </c>
+      <c r="E39" s="10"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="8">
-        <v>0</v>
-      </c>
-      <c r="C40" s="8">
-        <v>3</v>
-      </c>
-      <c r="D40" s="8">
-        <v>1</v>
-      </c>
-      <c r="E40" s="9">
-        <v>1612</v>
-      </c>
-      <c r="F40" s="8">
-        <v>424</v>
-      </c>
-      <c r="G40" s="8">
-        <v>22</v>
-      </c>
-      <c r="H40" s="8">
-        <v>32</v>
-      </c>
-      <c r="I40" s="8">
-        <f t="shared" si="0"/>
-        <v>2094</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="10">
+        <v>221635</v>
+      </c>
+      <c r="C40" s="10">
+        <v>221818</v>
+      </c>
+      <c r="D40" s="10">
+        <v>228125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="8">
-        <v>0</v>
-      </c>
-      <c r="C41" s="8">
-        <v>0</v>
-      </c>
-      <c r="D41" s="8">
-        <v>0</v>
-      </c>
-      <c r="E41" s="9">
-        <v>3429</v>
-      </c>
-      <c r="F41" s="8">
-        <v>625</v>
-      </c>
-      <c r="G41" s="8">
-        <v>8</v>
-      </c>
-      <c r="H41" s="8">
-        <v>395</v>
-      </c>
-      <c r="I41" s="8">
-        <f t="shared" si="0"/>
-        <v>4457</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="10">
+        <v>363578</v>
+      </c>
+      <c r="C41" s="10">
+        <v>352482</v>
+      </c>
+      <c r="D41" s="10">
+        <v>466241</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="8">
-        <v>0</v>
-      </c>
-      <c r="C42" s="8">
-        <v>3</v>
-      </c>
-      <c r="D42" s="8">
-        <v>0</v>
-      </c>
-      <c r="E42" s="9">
-        <v>2380</v>
-      </c>
-      <c r="F42" s="8">
-        <v>825</v>
-      </c>
-      <c r="G42" s="8">
-        <v>20</v>
-      </c>
-      <c r="H42" s="8">
-        <v>143</v>
-      </c>
-      <c r="I42" s="8">
-        <f t="shared" si="0"/>
-        <v>3371</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="10">
+        <v>326173</v>
+      </c>
+      <c r="C42" s="10">
+        <v>323386</v>
+      </c>
+      <c r="D42" s="10">
+        <v>450146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="8">
-        <v>0</v>
-      </c>
-      <c r="C43" s="8">
-        <v>1</v>
-      </c>
-      <c r="D43" s="8">
-        <v>0</v>
-      </c>
-      <c r="E43" s="8">
-        <v>934</v>
-      </c>
-      <c r="F43" s="8">
-        <v>232</v>
-      </c>
-      <c r="G43" s="8">
-        <v>0</v>
-      </c>
-      <c r="H43" s="8">
-        <v>69</v>
-      </c>
-      <c r="I43" s="8">
-        <f t="shared" si="0"/>
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="10">
+        <v>134524</v>
+      </c>
+      <c r="C43" s="10">
+        <v>131718</v>
+      </c>
+      <c r="D43" s="10">
+        <v>105557</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="8">
-        <v>0</v>
-      </c>
-      <c r="C44" s="8">
-        <v>1</v>
-      </c>
-      <c r="D44" s="8">
-        <v>0</v>
-      </c>
-      <c r="E44" s="8">
-        <v>681</v>
-      </c>
-      <c r="F44" s="8">
-        <v>165</v>
-      </c>
-      <c r="G44" s="8">
-        <v>3</v>
-      </c>
-      <c r="H44" s="8">
-        <v>14</v>
-      </c>
-      <c r="I44" s="8">
-        <f t="shared" si="0"/>
-        <v>864</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B44" s="10">
+        <v>115134</v>
+      </c>
+      <c r="C44" s="10">
+        <v>112248</v>
+      </c>
+      <c r="D44" s="10">
+        <v>158471</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="8">
-        <v>0</v>
-      </c>
-      <c r="C45" s="8">
-        <v>147</v>
-      </c>
-      <c r="D45" s="8">
-        <v>0</v>
-      </c>
-      <c r="E45" s="9">
-        <v>15278</v>
-      </c>
-      <c r="F45" s="9">
-        <v>1552</v>
-      </c>
-      <c r="G45" s="8">
-        <v>0</v>
-      </c>
-      <c r="H45" s="9">
-        <v>4795</v>
-      </c>
-      <c r="I45" s="8">
-        <f t="shared" si="0"/>
-        <v>21772</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B45" s="10">
+        <v>1850478</v>
+      </c>
+      <c r="C45" s="10">
+        <v>1733304</v>
+      </c>
+      <c r="D45" s="10">
+        <v>1645222</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>52</v>
       </c>
-      <c r="B46" s="8">
-        <v>0</v>
-      </c>
-      <c r="C46" s="8">
-        <v>0</v>
-      </c>
-      <c r="D46" s="8">
-        <v>0</v>
-      </c>
-      <c r="E46" s="8">
-        <v>76</v>
-      </c>
-      <c r="F46" s="8">
-        <v>4</v>
-      </c>
-      <c r="G46" s="8">
-        <v>0</v>
-      </c>
-      <c r="H46" s="9">
-        <v>10248</v>
-      </c>
-      <c r="I46" s="8">
-        <f t="shared" si="0"/>
-        <v>10328</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="10">
+        <v>99315</v>
+      </c>
+      <c r="C46" s="10">
+        <v>102362</v>
+      </c>
+      <c r="D46" s="10">
+        <v>102147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="8">
-        <v>0</v>
-      </c>
-      <c r="C47" s="8">
-        <v>0</v>
-      </c>
-      <c r="D47" s="8">
-        <v>0</v>
-      </c>
-      <c r="E47" s="8">
-        <v>551</v>
-      </c>
-      <c r="F47" s="8">
-        <v>124</v>
-      </c>
-      <c r="G47" s="8">
-        <v>0</v>
-      </c>
-      <c r="H47" s="9">
-        <v>11764</v>
-      </c>
-      <c r="I47" s="8">
-        <f t="shared" si="0"/>
-        <v>12439</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="10">
+        <v>194732</v>
+      </c>
+      <c r="C47" s="10">
+        <v>200162</v>
+      </c>
+      <c r="D47" s="10">
+        <v>187881</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>54</v>
       </c>
-      <c r="B48" s="8">
-        <v>0</v>
-      </c>
-      <c r="C48" s="9">
-        <v>1156</v>
-      </c>
-      <c r="D48" s="8">
-        <v>0</v>
-      </c>
-      <c r="E48" s="9">
-        <v>2161</v>
-      </c>
-      <c r="F48" s="8">
-        <v>806</v>
-      </c>
-      <c r="G48" s="8">
-        <v>0</v>
-      </c>
-      <c r="H48" s="9">
-        <v>11112</v>
-      </c>
-      <c r="I48" s="8">
-        <f t="shared" si="0"/>
-        <v>15235</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="10">
+        <v>329317</v>
+      </c>
+      <c r="C48" s="10">
+        <v>331215</v>
+      </c>
+      <c r="D48" s="10">
+        <v>297242</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="8">
-        <v>0</v>
-      </c>
-      <c r="C49" s="8">
-        <v>97</v>
-      </c>
-      <c r="D49" s="8">
-        <v>0</v>
-      </c>
-      <c r="E49" s="9">
-        <v>2774</v>
-      </c>
-      <c r="F49" s="9">
-        <v>1262</v>
-      </c>
-      <c r="G49" s="8">
-        <v>0</v>
-      </c>
-      <c r="H49" s="8">
-        <v>1068</v>
-      </c>
-      <c r="I49" s="8">
-        <f t="shared" si="0"/>
-        <v>5201</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B49" s="10">
+        <v>824047</v>
+      </c>
+      <c r="C49" s="10">
+        <v>648073</v>
+      </c>
+      <c r="D49" s="10">
+        <v>625365</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="8">
-        <v>0</v>
-      </c>
-      <c r="C50" s="8">
-        <v>7</v>
-      </c>
-      <c r="D50" s="8">
-        <v>0</v>
-      </c>
-      <c r="E50" s="9">
-        <v>1713</v>
-      </c>
-      <c r="F50" s="8">
-        <v>229</v>
-      </c>
-      <c r="G50" s="8">
-        <v>0</v>
-      </c>
-      <c r="H50" s="8">
-        <v>485</v>
-      </c>
-      <c r="I50" s="8">
-        <f t="shared" si="0"/>
-        <v>2434</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B50" s="10">
+        <v>1138654</v>
+      </c>
+      <c r="C50" s="10">
+        <v>1083077</v>
+      </c>
+      <c r="D50" s="10">
+        <v>1074983</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>57</v>
       </c>
-      <c r="B51" s="8">
-        <v>0</v>
-      </c>
-      <c r="C51" s="8">
-        <v>33</v>
-      </c>
-      <c r="D51" s="8">
-        <v>1</v>
-      </c>
-      <c r="E51" s="9">
-        <v>14586</v>
-      </c>
-      <c r="F51" s="8">
-        <v>852</v>
-      </c>
-      <c r="G51" s="8">
-        <v>0</v>
-      </c>
-      <c r="H51" s="9">
-        <v>1956</v>
-      </c>
-      <c r="I51" s="8">
-        <f t="shared" si="0"/>
-        <v>17428</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B51" s="10">
+        <v>1931963</v>
+      </c>
+      <c r="C51" s="10">
+        <v>1997938</v>
+      </c>
+      <c r="D51" s="10">
+        <v>1953017</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>58</v>
       </c>
-      <c r="B52" s="8">
-        <v>0</v>
-      </c>
-      <c r="C52" s="8">
-        <v>186</v>
-      </c>
-      <c r="D52" s="8">
-        <v>1</v>
-      </c>
-      <c r="E52" s="9">
-        <v>6567</v>
-      </c>
-      <c r="F52" s="9">
-        <v>1238</v>
-      </c>
-      <c r="G52" s="8">
-        <v>0</v>
-      </c>
-      <c r="H52" s="9">
-        <v>11618</v>
-      </c>
-      <c r="I52" s="8">
-        <f t="shared" si="0"/>
-        <v>19610</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B52" s="10">
+        <v>1710859</v>
+      </c>
+      <c r="C52" s="10">
+        <v>1975840</v>
+      </c>
+      <c r="D52" s="10">
+        <v>1927957</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="8">
-        <v>0</v>
-      </c>
-      <c r="C53" s="8">
-        <v>292</v>
-      </c>
-      <c r="D53" s="8">
-        <v>1</v>
-      </c>
-      <c r="E53" s="9">
-        <v>26481</v>
-      </c>
-      <c r="F53" s="9">
-        <v>5156</v>
-      </c>
-      <c r="G53" s="8">
-        <v>0</v>
-      </c>
-      <c r="H53" s="9">
-        <v>3498</v>
-      </c>
-      <c r="I53" s="8">
-        <f t="shared" si="0"/>
-        <v>35428</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B53" s="10">
+        <v>2370176</v>
+      </c>
+      <c r="C53" s="10">
+        <v>2728059</v>
+      </c>
+      <c r="D53" s="10">
+        <v>2729030</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="8">
-        <v>0</v>
-      </c>
-      <c r="C54" s="9">
-        <v>2504</v>
-      </c>
-      <c r="D54" s="8">
-        <v>3</v>
-      </c>
-      <c r="E54" s="9">
-        <v>10453</v>
-      </c>
-      <c r="F54" s="9">
-        <v>9408</v>
-      </c>
-      <c r="G54" s="8">
-        <v>0</v>
-      </c>
-      <c r="H54" s="9">
-        <v>30002</v>
-      </c>
-      <c r="I54" s="8">
-        <f t="shared" si="0"/>
-        <v>52370</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>61</v>
-      </c>
-      <c r="B55" s="8">
-        <v>0</v>
-      </c>
-      <c r="C55" s="8">
-        <v>0</v>
-      </c>
-      <c r="D55" s="8">
-        <v>14</v>
-      </c>
-      <c r="E55" s="9">
-        <v>107106</v>
-      </c>
-      <c r="F55" s="9">
-        <v>38490</v>
-      </c>
-      <c r="G55" s="8">
-        <v>0</v>
-      </c>
-      <c r="H55" s="9">
-        <v>68191</v>
-      </c>
-      <c r="I55" s="8">
-        <f t="shared" si="0"/>
-        <v>213801</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>62</v>
-      </c>
-      <c r="B56" s="8">
-        <v>0</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E56" s="8">
-        <v>0</v>
-      </c>
-      <c r="F56" s="8">
-        <v>0</v>
-      </c>
-      <c r="G56" s="8">
-        <v>0</v>
-      </c>
-      <c r="H56" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I56" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>66</v>
-      </c>
-      <c r="B57" s="8">
-        <v>0</v>
-      </c>
-      <c r="C57" s="8">
-        <v>0</v>
-      </c>
-      <c r="D57" s="8">
-        <v>0</v>
-      </c>
-      <c r="E57" s="8">
-        <v>0</v>
-      </c>
-      <c r="F57" s="8">
-        <v>0</v>
-      </c>
-      <c r="G57" s="8">
-        <v>0</v>
-      </c>
-      <c r="H57" s="8">
-        <v>0</v>
-      </c>
-      <c r="I57" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>67</v>
-      </c>
-      <c r="B58" s="8">
-        <v>626</v>
-      </c>
-      <c r="C58" s="8">
-        <v>853</v>
-      </c>
-      <c r="D58" s="8">
-        <v>938</v>
-      </c>
-      <c r="E58" s="8">
-        <v>427</v>
-      </c>
-      <c r="F58" s="8">
-        <v>39</v>
-      </c>
-      <c r="G58" s="8">
-        <v>0</v>
-      </c>
-      <c r="H58" s="9">
-        <v>9430</v>
-      </c>
-      <c r="I58" s="8">
-        <f t="shared" si="0"/>
-        <v>12313</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>68</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F59" s="8">
-        <v>0</v>
-      </c>
-      <c r="G59" s="8">
-        <v>0</v>
-      </c>
-      <c r="H59" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I59" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>74</v>
-      </c>
-      <c r="B60" s="9">
-        <v>51295</v>
-      </c>
-      <c r="C60" s="9">
-        <v>35996</v>
-      </c>
-      <c r="D60" s="9">
-        <v>19172</v>
-      </c>
-      <c r="E60" s="9">
-        <v>250078</v>
-      </c>
-      <c r="F60" s="9">
-        <v>92965</v>
-      </c>
-      <c r="G60" s="9">
-        <v>15558</v>
-      </c>
-      <c r="H60" s="9">
-        <v>177511</v>
-      </c>
-      <c r="I60" s="8">
-        <f t="shared" si="0"/>
-        <v>642575</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>75</v>
-      </c>
-      <c r="B61" s="9">
-        <v>126146</v>
-      </c>
-      <c r="C61" s="9">
-        <v>52569</v>
-      </c>
-      <c r="D61" s="9">
-        <v>18881</v>
-      </c>
-      <c r="E61" s="9">
-        <v>250852</v>
-      </c>
-      <c r="F61" s="9">
-        <v>92926</v>
-      </c>
-      <c r="G61" s="9">
-        <v>15558</v>
-      </c>
-      <c r="H61" s="9">
-        <v>191641</v>
-      </c>
-      <c r="I61" s="8">
-        <f t="shared" si="0"/>
-        <v>748573</v>
+      <c r="B54" s="10">
+        <v>2043064</v>
+      </c>
+      <c r="C54" s="10">
+        <v>1682805</v>
+      </c>
+      <c r="D54" s="10">
+        <v>1682805</v>
       </c>
     </row>
   </sheetData>
@@ -15201,766 +15380,451 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="1" max="1" width="49.85546875" style="54" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="54" customWidth="1"/>
+    <col min="3" max="16384" width="12.5703125" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B2" s="79" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="10">
-        <v>177337</v>
-      </c>
-      <c r="C3" s="10">
-        <v>171482</v>
-      </c>
-      <c r="D3" s="10">
-        <v>168532</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B3" s="54">
+        <v>-0.81200000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="10">
-        <v>34382</v>
-      </c>
-      <c r="C4" s="10">
-        <v>41502</v>
-      </c>
-      <c r="D4" s="10">
-        <v>48460</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B4" s="54">
+        <v>-0.81200000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="10">
-        <v>61093</v>
-      </c>
-      <c r="C5" s="10">
-        <v>51295</v>
-      </c>
-      <c r="D5" s="10">
-        <v>126146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B5" s="54">
+        <v>-0.29599999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="10">
-        <v>41144</v>
-      </c>
-      <c r="C6" s="10">
-        <v>35996</v>
-      </c>
-      <c r="D6" s="10">
-        <v>52569</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B6" s="54">
+        <v>-0.29599999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="10">
-        <v>19269</v>
-      </c>
-      <c r="C7" s="10">
-        <v>19172</v>
-      </c>
-      <c r="D7" s="10">
-        <v>18881</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B7" s="54">
+        <v>-0.106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="10">
-        <v>57139</v>
-      </c>
-      <c r="C8" s="10">
-        <v>57729</v>
-      </c>
-      <c r="D8" s="10">
-        <v>56813</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B8" s="54">
+        <v>-0.63300000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="10">
-        <v>259603</v>
-      </c>
-      <c r="C9" s="10">
-        <v>250078</v>
-      </c>
-      <c r="D9" s="10">
-        <v>250852</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B9" s="54">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="10">
-        <v>82614</v>
-      </c>
-      <c r="C10" s="10">
-        <v>92965</v>
-      </c>
-      <c r="D10" s="10">
-        <v>92926</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B10" s="54">
+        <v>-0.56599999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="10">
-        <v>966919</v>
-      </c>
-      <c r="C11" s="10">
-        <v>1031693</v>
-      </c>
-      <c r="D11" s="10">
-        <v>1031627</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B11" s="54">
+        <v>-0.77400000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="10">
-        <v>470396</v>
-      </c>
-      <c r="C12" s="10">
-        <v>474835</v>
-      </c>
-      <c r="D12" s="10">
-        <v>486680</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B12" s="54">
+        <v>-0.63800000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="10">
-        <v>59670</v>
-      </c>
-      <c r="C13" s="10">
-        <v>53357</v>
-      </c>
-      <c r="D13" s="10">
-        <v>62447</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B13" s="54">
+        <v>-1.139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="10">
-        <v>44078</v>
-      </c>
-      <c r="C14" s="10">
-        <v>41737</v>
-      </c>
-      <c r="D14" s="10">
-        <v>133149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B14" s="54">
+        <v>-2.4180000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="10">
-        <v>136132</v>
-      </c>
-      <c r="C15" s="10">
-        <v>133874</v>
-      </c>
-      <c r="D15" s="10">
-        <v>164005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B15" s="54">
+        <v>-0.69799999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="10">
-        <v>3443</v>
-      </c>
-      <c r="C16" s="10">
-        <v>5197</v>
-      </c>
-      <c r="D16" s="10">
-        <v>5177</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B16" s="54">
+        <v>-0.69799999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="10">
-        <v>45319</v>
-      </c>
-      <c r="C17" s="10">
-        <v>45945</v>
-      </c>
-      <c r="D17" s="10">
-        <v>52514</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B17" s="54">
+        <v>-0.69799999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="10">
-        <v>21095</v>
-      </c>
-      <c r="C18" s="10">
-        <v>19847</v>
-      </c>
-      <c r="D18" s="10">
-        <v>19882</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B18" s="54">
+        <v>-0.69799999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="10">
-        <v>173273</v>
-      </c>
-      <c r="C19" s="10">
-        <v>145200</v>
-      </c>
-      <c r="D19" s="10">
-        <v>145197</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B19" s="54">
+        <v>-0.69799999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="10">
-        <v>21023</v>
-      </c>
-      <c r="C20" s="10">
-        <v>15558</v>
-      </c>
-      <c r="D20" s="10">
-        <v>15558</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="B20" s="54">
+        <v>-7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="10">
-        <v>169836</v>
-      </c>
-      <c r="C21" s="10">
-        <v>177511</v>
-      </c>
-      <c r="D21" s="10">
-        <v>191641</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B21" s="54">
+        <v>-7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="10">
-        <v>14743</v>
-      </c>
-      <c r="C22" s="10">
-        <v>18531</v>
-      </c>
-      <c r="D22" s="10">
-        <v>18270</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B22" s="54">
+        <v>-0.98699999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="10">
-        <v>15177</v>
-      </c>
-      <c r="C23" s="10">
-        <v>17270</v>
-      </c>
-      <c r="D23" s="10">
-        <v>17745</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B23" s="54">
+        <v>-0.98699999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="10">
-        <v>47573</v>
-      </c>
-      <c r="C24" s="10">
-        <v>49531</v>
-      </c>
-      <c r="D24" s="10">
-        <v>47725</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B24" s="54">
+        <v>-0.98699999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="10">
-        <v>44832</v>
-      </c>
-      <c r="C25" s="10">
-        <v>44611</v>
-      </c>
-      <c r="D25" s="10">
-        <v>38808</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B25" s="54">
+        <v>-0.98699999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="10">
-        <v>7651</v>
-      </c>
-      <c r="C26" s="10">
-        <v>12359</v>
-      </c>
-      <c r="D26" s="10">
-        <v>12508</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B26" s="54">
+        <v>-0.98699999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="10">
-        <v>8239</v>
-      </c>
-      <c r="C27" s="10">
-        <v>8575</v>
-      </c>
-      <c r="D27" s="10">
-        <v>9195</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B27" s="54">
+        <v>-0.98699999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="10">
-        <v>403058</v>
-      </c>
-      <c r="C28" s="10">
-        <v>398920</v>
-      </c>
-      <c r="D28" s="10">
-        <v>448400</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B28" s="54">
+        <v>-0.98699999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="10">
-        <v>4367</v>
-      </c>
-      <c r="C29" s="10">
-        <v>4361</v>
-      </c>
-      <c r="D29" s="10">
-        <v>4861</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B29" s="54">
+        <v>-0.82699999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="10">
-        <v>7058</v>
-      </c>
-      <c r="C30" s="10">
-        <v>7022</v>
-      </c>
-      <c r="D30" s="10">
-        <v>8132</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B30" s="54">
+        <v>-0.82699999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="10">
-        <v>4900</v>
-      </c>
-      <c r="C31" s="10">
-        <v>4818</v>
-      </c>
-      <c r="D31" s="10">
-        <v>4837</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="B31" s="54">
+        <v>-0.82699999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="10">
-        <v>4834</v>
-      </c>
-      <c r="C32" s="10">
-        <v>4810</v>
-      </c>
-      <c r="D32" s="10">
-        <v>4787</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="B32" s="54">
+        <v>-0.82699999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="10">
-        <v>67020</v>
-      </c>
-      <c r="C33" s="10">
-        <v>65907</v>
-      </c>
-      <c r="D33" s="10">
-        <v>74686</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="B33" s="54">
+        <v>-0.82699999999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="10">
-        <v>41942</v>
-      </c>
-      <c r="C34" s="10">
-        <v>52665</v>
-      </c>
-      <c r="D34" s="10">
-        <v>62903</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="B34" s="54">
+        <v>-0.95299999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="10">
-        <v>18765</v>
-      </c>
-      <c r="C35" s="10">
-        <v>18104</v>
-      </c>
-      <c r="D35" s="10">
-        <v>22262</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="B35" s="54">
+        <v>-0.95299999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="10">
-        <v>14700</v>
-      </c>
-      <c r="C36" s="10">
-        <v>14413</v>
-      </c>
-      <c r="D36" s="10">
-        <v>14545</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="B36" s="54">
+        <v>-0.95299999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="10">
-        <v>11420</v>
-      </c>
-      <c r="C37" s="10">
-        <v>11158</v>
-      </c>
-      <c r="D37" s="10">
-        <v>11142</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="B37" s="54">
+        <v>-0.95299999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="10">
-        <v>28403</v>
-      </c>
-      <c r="C38" s="10">
-        <v>21628</v>
-      </c>
-      <c r="D38" s="10">
-        <v>29823</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="B38" s="54">
+        <v>-0.95299999999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="11">
-        <v>219291</v>
-      </c>
-      <c r="C39" s="11">
-        <v>212025</v>
-      </c>
-      <c r="D39" s="11">
-        <v>225327</v>
-      </c>
-      <c r="E39" s="10"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="B39" s="54">
+        <v>-0.505</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="10">
-        <v>221635</v>
-      </c>
-      <c r="C40" s="10">
-        <v>221818</v>
-      </c>
-      <c r="D40" s="10">
-        <v>228125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="B40" s="54">
+        <v>-1.6619999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="10">
-        <v>363578</v>
-      </c>
-      <c r="C41" s="10">
-        <v>352482</v>
-      </c>
-      <c r="D41" s="10">
-        <v>466241</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="B41" s="54">
+        <v>-2.5960000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="10">
-        <v>326173</v>
-      </c>
-      <c r="C42" s="10">
-        <v>323386</v>
-      </c>
-      <c r="D42" s="10">
-        <v>450146</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="B42" s="54">
+        <v>-2.4849999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="10">
-        <v>134524</v>
-      </c>
-      <c r="C43" s="10">
-        <v>131718</v>
-      </c>
-      <c r="D43" s="10">
-        <v>105557</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="B43" s="54">
+        <v>-2.4849999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="10">
-        <v>115134</v>
-      </c>
-      <c r="C44" s="10">
-        <v>112248</v>
-      </c>
-      <c r="D44" s="10">
-        <v>158471</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="B44" s="54">
+        <v>-1.6619999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="10">
-        <v>1850478</v>
-      </c>
-      <c r="C45" s="10">
-        <v>1733304</v>
-      </c>
-      <c r="D45" s="10">
-        <v>1645222</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="B45" s="54">
+        <v>-0.745</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="B46" s="10">
-        <v>99315</v>
-      </c>
-      <c r="C46" s="10">
-        <v>102362</v>
-      </c>
-      <c r="D46" s="10">
-        <v>102147</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="B46" s="54">
+        <v>-0.83299999999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="10">
-        <v>194732</v>
-      </c>
-      <c r="C47" s="10">
-        <v>200162</v>
-      </c>
-      <c r="D47" s="10">
-        <v>187881</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="B47" s="54">
+        <v>-0.83299999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="B48" s="10">
-        <v>329317</v>
-      </c>
-      <c r="C48" s="10">
-        <v>331215</v>
-      </c>
-      <c r="D48" s="10">
-        <v>297242</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="B48" s="54">
+        <v>-0.83299999999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="10">
-        <v>824047</v>
-      </c>
-      <c r="C49" s="10">
-        <v>648073</v>
-      </c>
-      <c r="D49" s="10">
-        <v>625365</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="B49" s="54">
+        <v>-0.745</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="10">
-        <v>1138654</v>
-      </c>
-      <c r="C50" s="10">
-        <v>1083077</v>
-      </c>
-      <c r="D50" s="10">
-        <v>1074983</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="B50" s="54">
+        <v>-0.745</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="B51" s="10">
-        <v>1931963</v>
-      </c>
-      <c r="C51" s="10">
-        <v>1997938</v>
-      </c>
-      <c r="D51" s="10">
-        <v>1953017</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="B51" s="54">
+        <v>-0.745</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="B52" s="10">
-        <v>1710859</v>
-      </c>
-      <c r="C52" s="10">
-        <v>1975840</v>
-      </c>
-      <c r="D52" s="10">
-        <v>1927957</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="B52" s="54">
+        <v>-0.745</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="10">
-        <v>2370176</v>
-      </c>
-      <c r="C53" s="10">
-        <v>2728059</v>
-      </c>
-      <c r="D53" s="10">
-        <v>2729030</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="B53" s="54">
+        <v>-0.745</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="10">
-        <v>2043064</v>
-      </c>
-      <c r="C54" s="10">
-        <v>1682805</v>
-      </c>
-      <c r="D54" s="10">
-        <v>1682805</v>
+      <c r="B54" s="54">
+        <v>-0.745</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
 </file>